--- a/docs/apf/apf-manutencao.xlsx
+++ b/docs/apf/apf-manutencao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr dateCompatibility="0" codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/tcc-pucminas/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/tcc-pucminas/docs/apf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{94AD6E24-713F-714A-9CAB-CDECD9B7066C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3516C705-046E-A146-9823-AE760E81FACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem" sheetId="1" r:id="rId1"/>
@@ -2755,7 +2755,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3076,139 +3076,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3245,6 +3112,142 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3865,19 +3868,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25889967637540451</c:v>
+                  <c:v>0.47265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12944983818770225</c:v>
+                  <c:v>0.17578125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29126213592233008</c:v>
+                  <c:v>0.3515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30420711974110032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6181229773462782E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4278,7 +4281,7 @@
             <xdr:cNvPr id="1025" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D532AE5B-A75A-574E-AA8E-68CF0F83A5E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526EFD51-8979-044A-9FF9-E5C75969A84A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4371,7 +4374,7 @@
             <xdr:cNvPr id="1026" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7313A366-8A9C-8640-98C5-9A78C73EC4B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E08788D-BBE2-B544-B145-E56384D5641B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4464,7 +4467,7 @@
             <xdr:cNvPr id="1027" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578A8FD2-FC25-C945-9564-ED06767EEF8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AEF713-33A9-FF46-8B24-AB43B1BAA997}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4650,7 +4653,7 @@
             <xdr:cNvPr id="2049" name="Comment 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6734958-70EE-EE43-A0D7-8EB4F895D65B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0356510-BB94-3949-A2C8-1272D95A89C0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4763,7 +4766,7 @@
             <xdr:cNvPr id="2050" name="Comment 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C48888-DB72-6844-B88D-6763F653B5B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9111EC95-E852-6348-86DD-81E52A37C93F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4863,7 +4866,7 @@
             <xdr:cNvPr id="2051" name="Comment 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A500716-C89E-3C4E-9B80-BFFAAF0D4037}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D429C02-7422-B542-B90D-9E23E9A5D505}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4976,7 +4979,7 @@
             <xdr:cNvPr id="2052" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C68E16-3E9E-E14C-BFCE-BDFC6A94C8C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D7B65E-B68E-2445-AFD2-D2A2134014FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5105,7 +5108,7 @@
             <xdr:cNvPr id="2053" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE07C5F-801F-0C45-A095-BBE74825F68C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FE1937-894E-AE49-AF05-CBB71D67E40A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5237,7 +5240,7 @@
             <xdr:cNvPr id="2054" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B1DFB7-EAC7-BA45-8616-6B7C2AC52902}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F289BF1A-913F-9342-B9BE-4B024F0B4EC9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5382,7 +5385,7 @@
             <xdr:cNvPr id="2055" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E07DB41-9749-D746-BAFC-43906605D27B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBCED7D-29D7-2F42-AF4F-3D767228656D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5479,7 +5482,7 @@
             <xdr:cNvPr id="2056" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC9BBB5-DBF4-BB42-B31C-97AD416DC13D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB50B715-7808-FC4D-98CB-897C03A6C350}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5576,7 +5579,7 @@
             <xdr:cNvPr id="2057" name="Comment 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E0DD23-67C3-2A46-AF65-04D24FF8120D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D112B59-9214-C34F-89D5-DAB9D78CE545}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5673,7 +5676,7 @@
             <xdr:cNvPr id="2058" name="Comment 10" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058BB987-8046-3647-8B57-6943093424E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A52FD2D-71BF-5A47-A2D5-B97568B4426C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5770,7 +5773,7 @@
             <xdr:cNvPr id="2059" name="Comment 11" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB243FC1-2712-CB4C-B253-96379E05DEDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A43D291-3C4A-F24F-B84B-2F7024C77401}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6091,7 +6094,7 @@
             <xdr:cNvPr id="4097" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36717D39-1E7C-6248-B76B-E1C7FD895DE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E3FF0D-DEA9-7B40-BD9F-A0896C18C480}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6188,7 +6191,7 @@
             <xdr:cNvPr id="4098" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB31FFF-C424-D449-9930-75F6D1CCCCC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FB08D5-B42D-294B-8A41-F4610CF6DC1E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6378,7 +6381,7 @@
             <xdr:cNvPr id="5121" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D299DA-6564-1248-A0FA-179FED4E07E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B221FCED-1065-B641-983F-1193FF86302D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6475,7 +6478,7 @@
             <xdr:cNvPr id="5122" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D286B184-28FA-F449-99CB-6549339906B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FBC566-3C09-6344-BDA3-1E3518DE66A3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6577,7 +6580,7 @@
             <xdr:cNvPr id="6145" name="Comment 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60438B07-39B0-B94B-A48F-3F7972CBAEEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B4D0C5-55AA-C64B-9D3A-D343276D76BD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6706,7 +6709,7 @@
             <xdr:cNvPr id="6146" name="Comment 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9EDF4B6-FA3E-9C4D-B7E7-7D6A1CBC8911}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6822D8CA-B24D-144F-95C4-85CE7EBCEB40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6838,7 +6841,7 @@
             <xdr:cNvPr id="6147" name="Comment 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687B715E-BF34-284F-B3C2-A49935A87E9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D68DC7A-9934-8C4D-877F-7357A0947278}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6983,7 +6986,7 @@
             <xdr:cNvPr id="6148" name="Comment 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83C1077-2721-8E40-981A-B2B75267DCCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A89ADE-6375-B344-8CEB-4C654D964539}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7080,7 +7083,7 @@
             <xdr:cNvPr id="6149" name="Comment 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34636B33-59EF-E240-B81D-36E1AE190E26}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91ADC36-3583-0F44-831A-5D75CBEC489F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7534,7 +7537,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="167" zoomScaleNormal="100" zoomScaleSheetLayoutView="172" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" zoomScaleNormal="100" zoomScaleSheetLayoutView="172" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:V45"/>
@@ -7560,1172 +7563,1147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="139" t="s">
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="144" t="s">
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="142">
+      <c r="P4" s="150"/>
+      <c r="Q4" s="148">
         <f>Funções!L4</f>
-        <v>309</v>
-      </c>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
+        <v>256</v>
+      </c>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="139" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="140" t="s">
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="142">
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148">
         <f>Funções!L5</f>
-        <v>309</v>
-      </c>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
+        <v>256</v>
+      </c>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="136" t="s">
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="140" t="s">
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="142">
+      <c r="P6" s="147"/>
+      <c r="Q6" s="148">
         <f>Funções!L6</f>
-        <v>309</v>
-      </c>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
+        <v>256</v>
+      </c>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="139" t="s">
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146" t="s">
         <v>282</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="140" t="s">
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="141" t="s">
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="139" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="140" t="s">
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="136" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="137" t="s">
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="137" t="s">
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="133"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="133"/>
-      <c r="V12" s="133"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="133"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="133"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="133"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="133"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="133"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="133"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="133"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="134"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="134"/>
-      <c r="R23" s="134"/>
-      <c r="S23" s="134"/>
-      <c r="T23" s="134"/>
-      <c r="U23" s="134"/>
-      <c r="V23" s="134"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="157"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
+      <c r="A24" s="157"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
+      <c r="V24" s="157"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="134"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="134"/>
-      <c r="R25" s="134"/>
-      <c r="S25" s="134"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="134"/>
-      <c r="V25" s="134"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="157"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
+      <c r="V25" s="157"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
-      <c r="V26" s="134"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
+      <c r="T27" s="157"/>
+      <c r="U27" s="157"/>
+      <c r="V27" s="157"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="134"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="134"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="134"/>
-      <c r="V28" s="134"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="157"/>
+      <c r="V28" s="157"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A29" s="134"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="157"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="134"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="157"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="134"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="157"/>
+      <c r="U31" s="157"/>
+      <c r="V31" s="157"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="157"/>
+      <c r="O32" s="157"/>
+      <c r="P32" s="157"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="157"/>
+      <c r="U32" s="157"/>
+      <c r="V32" s="157"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="134"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134"/>
-      <c r="O33" s="134"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="134"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="134"/>
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
+      <c r="O33" s="157"/>
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="157"/>
+      <c r="U33" s="157"/>
+      <c r="V33" s="157"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="134"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="134"/>
-      <c r="P34" s="134"/>
-      <c r="Q34" s="134"/>
-      <c r="R34" s="134"/>
-      <c r="S34" s="134"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="134"/>
-      <c r="V34" s="134"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="157"/>
+      <c r="U34" s="157"/>
+      <c r="V34" s="157"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
-      <c r="N35" s="134"/>
-      <c r="O35" s="134"/>
-      <c r="P35" s="134"/>
-      <c r="Q35" s="134"/>
-      <c r="R35" s="134"/>
-      <c r="S35" s="134"/>
-      <c r="T35" s="134"/>
-      <c r="U35" s="134"/>
-      <c r="V35" s="134"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="157"/>
+      <c r="V35" s="157"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="134"/>
-      <c r="Q36" s="134"/>
-      <c r="R36" s="134"/>
-      <c r="S36" s="134"/>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="134"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="134"/>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
-      <c r="N37" s="134"/>
-      <c r="O37" s="134"/>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="134"/>
-      <c r="R37" s="134"/>
-      <c r="S37" s="134"/>
-      <c r="T37" s="134"/>
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="157"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="134"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="157"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="134"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A40" s="134"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="134"/>
-      <c r="P40" s="134"/>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="134"/>
-      <c r="S40" s="134"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="134"/>
-      <c r="V40" s="134"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="157"/>
+      <c r="R40" s="157"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="157"/>
+      <c r="U40" s="157"/>
+      <c r="V40" s="157"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="134"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="134"/>
-      <c r="P41" s="134"/>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="134"/>
-      <c r="S41" s="134"/>
-      <c r="T41" s="134"/>
-      <c r="U41" s="134"/>
-      <c r="V41" s="134"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="157"/>
+      <c r="R41" s="157"/>
+      <c r="S41" s="157"/>
+      <c r="T41" s="157"/>
+      <c r="U41" s="157"/>
+      <c r="V41" s="157"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="134"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="134"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="134"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="157"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="157"/>
+      <c r="U42" s="157"/>
+      <c r="V42" s="157"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="134"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
-      <c r="P43" s="134"/>
-      <c r="Q43" s="134"/>
-      <c r="R43" s="134"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="134"/>
-      <c r="V43" s="134"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
+      <c r="N43" s="157"/>
+      <c r="O43" s="157"/>
+      <c r="P43" s="157"/>
+      <c r="Q43" s="157"/>
+      <c r="R43" s="157"/>
+      <c r="S43" s="157"/>
+      <c r="T43" s="157"/>
+      <c r="U43" s="157"/>
+      <c r="V43" s="157"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="134"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="134"/>
-      <c r="P44" s="134"/>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="134"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="134"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="157"/>
+      <c r="O44" s="157"/>
+      <c r="P44" s="157"/>
+      <c r="Q44" s="157"/>
+      <c r="R44" s="157"/>
+      <c r="S44" s="157"/>
+      <c r="T44" s="157"/>
+      <c r="U44" s="157"/>
+      <c r="V44" s="157"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="134"/>
-      <c r="V45" s="134"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="157"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="157"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="157"/>
+      <c r="U45" s="157"/>
+      <c r="V45" s="157"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="35">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:V9"/>
     <mergeCell ref="A16:V16"/>
     <mergeCell ref="A17:V20"/>
     <mergeCell ref="A21:V21"/>
@@ -8736,6 +8714,31 @@
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="A11:V11"/>
     <mergeCell ref="A12:V15"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:V4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -8775,7 +8778,7 @@
     <sheetView showGridLines="0" zoomScale="194" zoomScaleNormal="100" zoomScaleSheetLayoutView="181" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8799,141 +8802,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
     </row>
     <row r="2" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Doggis</v>
       </c>
-      <c r="B4" s="151" t="str">
+      <c r="B4" s="164" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : TCC</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="153"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
       <c r="K4" s="117" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="120">
         <f>SUM(H8:H606)</f>
-        <v>309</v>
-      </c>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+        <v>256</v>
+      </c>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Gabriel dos Santos Lucena</v>
       </c>
-      <c r="B5" s="151" t="str">
+      <c r="B5" s="164" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="119" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="120">
         <f>SUM(K8:K606)</f>
-        <v>309</v>
-      </c>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
+        <v>256</v>
+      </c>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="125" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : PUC Minas</v>
       </c>
-      <c r="B6" s="145" t="str">
+      <c r="B6" s="158" t="str">
         <f>"Tipo da Contagem : "&amp;Contagem!F6</f>
         <v>Tipo da Contagem : Aplicação</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="118" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="120">
         <f>SUM(L8:L606)</f>
-        <v>309</v>
-      </c>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
+        <v>256</v>
+      </c>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="124" t="s">
@@ -9035,7 +9038,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>241</v>
@@ -9052,11 +9055,11 @@
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIA</v>
+        <v>EEA</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I9" s="126" t="str">
         <f t="shared" si="3"/>
@@ -9064,15 +9067,15 @@
       </c>
       <c r="J9" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K9" s="13">
         <f>IF(OR(H9="",H9=0),L9,H9)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L9" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B9,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B9,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C9),ISBLANK(B9)),"",VLOOKUP(C9,Deflatores!G$4:H$38,2,FALSE)*H9+VLOOKUP(C9,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -9083,10 +9086,10 @@
         <v>215</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9100,11 +9103,11 @@
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" s="126" t="str">
         <f t="shared" si="3"/>
@@ -9112,15 +9115,15 @@
       </c>
       <c r="J10" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALICIR</v>
+        <v>EEi</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" ref="K10:K72" si="5">IF(OR(H10="",H10=0),L10,H10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L10" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B10,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B10,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C10),ISBLANK(B10)),"",VLOOKUP(C10,Deflatores!G$4:H$38,2,FALSE)*H10+VLOOKUP(C10,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -9275,7 +9278,7 @@
         <v>190</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>241</v>
@@ -9292,11 +9295,11 @@
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14" s="126" t="str">
         <f t="shared" si="3"/>
@@ -9304,15 +9307,15 @@
       </c>
       <c r="J14" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L14" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B14,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B14,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C14),ISBLANK(B14)),"",VLOOKUP(C14,Deflatores!G$4:H$38,2,FALSE)*H14+VLOOKUP(C14,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -9326,7 +9329,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9352,7 +9355,7 @@
       </c>
       <c r="J15" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="5"/>
@@ -9515,7 +9518,7 @@
         <v>193</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>241</v>
@@ -9532,11 +9535,11 @@
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I19" s="126" t="str">
         <f t="shared" si="3"/>
@@ -9544,15 +9547,15 @@
       </c>
       <c r="J19" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L19" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B19,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B19,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C19),ISBLANK(B19)),"",VLOOKUP(C19,Deflatores!G$4:H$38,2,FALSE)*H19+VLOOKUP(C19,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -9566,7 +9569,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -9592,7 +9595,7 @@
       </c>
       <c r="J20" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="5"/>
@@ -9614,7 +9617,7 @@
         <v>102</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -9640,7 +9643,7 @@
       </c>
       <c r="J21" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="5"/>
@@ -9803,7 +9806,7 @@
         <v>181</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>241</v>
@@ -9820,11 +9823,11 @@
       </c>
       <c r="G25" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I25" s="126" t="str">
         <f t="shared" si="3"/>
@@ -9832,15 +9835,15 @@
       </c>
       <c r="J25" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L25" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B25,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B25,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C25),ISBLANK(B25)),"",VLOOKUP(C25,Deflatores!G$4:H$38,2,FALSE)*H25+VLOOKUP(C25,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -9854,7 +9857,7 @@
         <v>102</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -9880,7 +9883,7 @@
       </c>
       <c r="J26" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="5"/>
@@ -9902,7 +9905,7 @@
         <v>102</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -9928,7 +9931,7 @@
       </c>
       <c r="J27" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="5"/>
@@ -9950,7 +9953,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -9976,7 +9979,7 @@
       </c>
       <c r="J28" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="5"/>
@@ -10091,7 +10094,7 @@
         <v>180</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>241</v>
@@ -10108,11 +10111,11 @@
       </c>
       <c r="G31" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I31" s="126" t="str">
         <f t="shared" si="3"/>
@@ -10120,15 +10123,15 @@
       </c>
       <c r="J31" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L31" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B31,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B31,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C31),ISBLANK(B31)),"",VLOOKUP(C31,Deflatores!G$4:H$38,2,FALSE)*H31+VLOOKUP(C31,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
@@ -10142,7 +10145,7 @@
         <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -10168,7 +10171,7 @@
       </c>
       <c r="J32" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K32" s="13">
         <f t="shared" si="5"/>
@@ -10190,7 +10193,7 @@
         <v>102</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -10216,7 +10219,7 @@
       </c>
       <c r="J33" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K33" s="13">
         <f t="shared" si="5"/>
@@ -10379,7 +10382,7 @@
         <v>197</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>241</v>
@@ -10396,11 +10399,11 @@
       </c>
       <c r="G37" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I37" s="126" t="str">
         <f t="shared" si="3"/>
@@ -10408,15 +10411,15 @@
       </c>
       <c r="J37" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L37" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B37,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B37,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C37),ISBLANK(B37)),"",VLOOKUP(C37,Deflatores!G$4:H$38,2,FALSE)*H37+VLOOKUP(C37,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
@@ -10430,7 +10433,7 @@
         <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -10456,7 +10459,7 @@
       </c>
       <c r="J38" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K38" s="13">
         <f t="shared" si="5"/>
@@ -10478,7 +10481,7 @@
         <v>102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -10504,7 +10507,7 @@
       </c>
       <c r="J39" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="5"/>
@@ -10526,7 +10529,7 @@
         <v>102</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -10552,7 +10555,7 @@
       </c>
       <c r="J40" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K40" s="13">
         <f t="shared" si="5"/>
@@ -10574,7 +10577,7 @@
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -10600,7 +10603,7 @@
       </c>
       <c r="J41" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="5"/>
@@ -10715,7 +10718,7 @@
         <v>204</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>241</v>
@@ -10732,11 +10735,11 @@
       </c>
       <c r="G44" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I44" s="126" t="str">
         <f t="shared" si="3"/>
@@ -10744,15 +10747,15 @@
       </c>
       <c r="J44" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K44" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L44" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B44,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B44,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C44),ISBLANK(B44)),"",VLOOKUP(C44,Deflatores!G$4:H$38,2,FALSE)*H44+VLOOKUP(C44,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
@@ -10763,10 +10766,10 @@
         <v>214</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -10776,31 +10779,31 @@
       </c>
       <c r="F45" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="G45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEA</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I45" s="126" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="J45" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIADS</v>
+        <v>EEi</v>
       </c>
       <c r="K45" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L45" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B45,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B45,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C45),ISBLANK(B45)),"",VLOOKUP(C45,Deflatores!G$4:H$38,2,FALSE)*H45+VLOOKUP(C45,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -10814,7 +10817,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -10840,7 +10843,7 @@
       </c>
       <c r="J46" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>SECIR</v>
+        <v>SEi</v>
       </c>
       <c r="K46" s="13">
         <f t="shared" si="5"/>
@@ -11003,7 +11006,7 @@
         <v>208</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>241</v>
@@ -11020,11 +11023,11 @@
       </c>
       <c r="G50" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I50" s="126" t="str">
         <f t="shared" si="3"/>
@@ -11032,15 +11035,15 @@
       </c>
       <c r="J50" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K50" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L50" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B50,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B50,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C50),ISBLANK(B50)),"",VLOOKUP(C50,Deflatores!G$4:H$38,2,FALSE)*H50+VLOOKUP(C50,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
@@ -11054,7 +11057,7 @@
         <v>102</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -11080,7 +11083,7 @@
       </c>
       <c r="J51" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K51" s="13">
         <f t="shared" si="5"/>
@@ -11243,7 +11246,7 @@
         <v>213</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>241</v>
@@ -11260,11 +11263,11 @@
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I55" s="126" t="str">
         <f t="shared" si="3"/>
@@ -11272,15 +11275,15 @@
       </c>
       <c r="J55" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K55" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L55" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B55,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B55,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C55),ISBLANK(B55)),"",VLOOKUP(C55,Deflatores!G$4:H$38,2,FALSE)*H55+VLOOKUP(C55,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -11294,7 +11297,7 @@
         <v>103</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -11320,7 +11323,7 @@
       </c>
       <c r="J56" s="11" t="str">
         <f>CONCATENATE(B56,C56)</f>
-        <v>SECIR</v>
+        <v>SEi</v>
       </c>
       <c r="K56" s="13">
         <f t="shared" si="5"/>
@@ -11438,7 +11441,7 @@
         <v>102</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -11464,7 +11467,7 @@
       </c>
       <c r="J59" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K59" s="13">
         <f t="shared" si="5"/>
@@ -11675,7 +11678,7 @@
         <v>226</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>241</v>
@@ -11692,11 +11695,11 @@
       </c>
       <c r="G64" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H64" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I64" s="126" t="str">
         <f t="shared" si="3"/>
@@ -11704,15 +11707,15 @@
       </c>
       <c r="J64" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K64" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L64" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B64,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B64,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C64),ISBLANK(B64)),"",VLOOKUP(C64,Deflatores!G$4:H$38,2,FALSE)*H64+VLOOKUP(C64,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
@@ -11726,7 +11729,7 @@
         <v>102</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -11752,7 +11755,7 @@
       </c>
       <c r="J65" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K65" s="13">
         <f t="shared" si="5"/>
@@ -11774,7 +11777,7 @@
         <v>102</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -11800,7 +11803,7 @@
       </c>
       <c r="J66" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>CECIR</v>
+        <v>CEi</v>
       </c>
       <c r="K66" s="13">
         <f t="shared" si="5"/>
@@ -11962,8 +11965,8 @@
       <c r="A70" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>98</v>
+      <c r="B70" s="187" t="s">
+        <v>100</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>241</v>
@@ -11980,11 +11983,11 @@
       </c>
       <c r="G70" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ALIL</v>
+        <v>EEL</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I70" s="126" t="str">
         <f t="shared" si="3"/>
@@ -11992,15 +11995,15 @@
       </c>
       <c r="J70" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>ALIi</v>
+        <v>EEi</v>
       </c>
       <c r="K70" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L70" s="13">
         <f>IF(NOT(ISERROR(VLOOKUP(B70,Deflatores!G$42:H$64,2,FALSE))),VLOOKUP(B70,Deflatores!G$42:H$64,2,FALSE),IF(OR(ISBLANK(C70),ISBLANK(B70)),"",VLOOKUP(C70,Deflatores!G$4:H$38,2,FALSE)*H70+VLOOKUP(C70,Deflatores!G$4:I$38,3,FALSE)))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
@@ -12011,10 +12014,10 @@
         <v>236</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -12024,11 +12027,11 @@
       </c>
       <c r="F71" s="12" t="str">
         <f t="shared" ref="F71:F134" si="6">IF(ISBLANK(B71),"",IF(I71="L","Baixa",IF(I71="A","Média",IF(I71="","","Alta"))))</f>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="G71" s="11" t="str">
         <f t="shared" ref="G71:G134" si="7">CONCATENATE(B71,I71)</f>
-        <v>AIEL</v>
+        <v>SEA</v>
       </c>
       <c r="H71" s="6">
         <f t="shared" ref="H71:H134" si="8">IF(ISBLANK(B71),"",IF(B71="ALI",IF(I71="L",7,IF(I71="A",10,15)),IF(B71="AIE",IF(I71="L",5,IF(I71="A",7,10)),IF(B71="SE",IF(I71="L",4,IF(I71="A",5,7)),IF(OR(B71="EE",B71="CE"),IF(I71="L",3,IF(I71="A",4,6)),0)))))</f>
@@ -12036,11 +12039,11 @@
       </c>
       <c r="I71" s="126" t="str">
         <f t="shared" ref="I71:I134" si="9">IF(OR(ISBLANK(D71),ISBLANK(E71)),IF(OR(B71="ALI",B71="AIE"),"L",IF(OR(B71="EE",B71="SE",B71="CE"),"A","")),IF(B71="EE",IF(E71&gt;=3,IF(D71&gt;=5,"H","A"),IF(E71&gt;=2,IF(D71&gt;=16,"H",IF(D71&lt;=4,"L","A")),IF(D71&lt;=15,"L","A"))),IF(OR(B71="SE",B71="CE"),IF(E71&gt;=4,IF(D71&gt;=6,"H","A"),IF(E71&gt;=2,IF(D71&gt;=20,"H",IF(D71&lt;=5,"L","A")),IF(D71&lt;=19,"L","A"))),IF(OR(B71="ALI",B71="AIE"),IF(E71&gt;=6,IF(D71&gt;=20,"H","A"),IF(E71&gt;=2,IF(D71&gt;=51,"H",IF(D71&lt;=19,"L","A")),IF(D71&lt;=50,"L","A"))),""))))</f>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="J71" s="11" t="str">
         <f t="shared" ref="J71:J134" si="10">CONCATENATE(B71,C71)</f>
-        <v>AIECIR</v>
+        <v>SEi</v>
       </c>
       <c r="K71" s="13">
         <f t="shared" si="5"/>
@@ -32440,7 +32443,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Função" prompt="ALI, AIE, EE, SE, CE_x000a_ou_x000a_Itens não mensuráveis" sqref="B8:B606" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo da Função" prompt="ALI, AIE, EE, SE, CE_x000a_ou_x000a_Itens não mensuráveis" sqref="B8:B69 B71:B606" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>TiposDeFuncao</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -32487,41 +32490,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
       <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="157" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157" t="s">
+      <c r="I2" s="168"/>
+      <c r="J2" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="158" t="s">
+      <c r="K2" s="169" t="s">
         <v>34</v>
       </c>
     </row>
@@ -32529,35 +32532,35 @@
       <c r="A3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="157"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="28" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="157"/>
-      <c r="K3" s="158"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="169"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="2"/>
       <c r="G4" s="29" t="s">
         <v>41</v>
@@ -32568,23 +32571,23 @@
       <c r="I4" s="109"/>
       <c r="J4" s="110">
         <f>SUMIF(Funções!$C$8:$C$606,Deflatores!G4,Funções!$H$8:$H$606)</f>
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K4" s="111">
         <f>IF(H4="",COUNTIF(Funções!C$8:C$606,G4)*I4,H4*J4)</f>
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
@@ -32608,12 +32611,12 @@
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
@@ -32635,12 +32638,12 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
@@ -32662,12 +32665,12 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
@@ -32689,12 +32692,12 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="2" t="s">
         <v>48</v>
       </c>
@@ -32716,12 +32719,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
@@ -32743,12 +32746,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
@@ -32770,12 +32773,12 @@
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
@@ -32797,12 +32800,12 @@
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
@@ -32824,12 +32827,12 @@
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="2" t="s">
         <v>56</v>
       </c>
@@ -32851,12 +32854,12 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
@@ -32878,12 +32881,12 @@
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
@@ -32905,12 +32908,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="147" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
@@ -32932,12 +32935,12 @@
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
@@ -32959,12 +32962,12 @@
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
@@ -32986,12 +32989,12 @@
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
@@ -33013,12 +33016,12 @@
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
       <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
@@ -33040,12 +33043,12 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
@@ -33067,12 +33070,12 @@
     </row>
     <row r="23" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
       <c r="F23" s="107" t="s">
         <v>78</v>
       </c>
@@ -33094,12 +33097,12 @@
     </row>
     <row r="24" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
       <c r="F24" s="107" t="s">
         <v>78</v>
       </c>
@@ -33121,12 +33124,12 @@
     </row>
     <row r="25" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
       <c r="F25" s="107" t="s">
         <v>78</v>
       </c>
@@ -33148,12 +33151,12 @@
     </row>
     <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
       <c r="F26" s="2" t="s">
         <v>81</v>
       </c>
@@ -33166,21 +33169,21 @@
       <c r="I26" s="109"/>
       <c r="J26" s="110">
         <f>SUMIF(Funções!$C$8:$C$606,Deflatores!G26,Funções!$H$8:$H$606)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K26" s="111">
         <f>IF(H26="",COUNTIF(Funções!C$8:C$606,G26)*I26,H26*J26)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="147" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
       <c r="F27" s="2" t="s">
         <v>81</v>
       </c>
@@ -33202,12 +33205,12 @@
     </row>
     <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="2" t="s">
         <v>81</v>
       </c>
@@ -33229,12 +33232,12 @@
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
-      <c r="B29" s="140" t="s">
+      <c r="B29" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
       <c r="F29" s="2" t="s">
         <v>86</v>
       </c>
@@ -33256,12 +33259,12 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
       <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
@@ -33283,12 +33286,12 @@
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
       <c r="F31" s="2" t="s">
         <v>92</v>
       </c>
@@ -33418,12 +33421,12 @@
     </row>
     <row r="36" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
       <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
@@ -33436,19 +33439,19 @@
       <c r="I36" s="109"/>
       <c r="J36" s="110">
         <f>SUMIF(Funções!$C$8:$C$606,Deflatores!G36,Funções!$H$8:$H$606)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="K36" s="111">
         <f>IF(H36="",COUNTIF(Funções!C$8:C$606,G36)*I36,H36*J36)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
       <c r="F37" s="2"/>
       <c r="G37" s="29" t="s">
         <v>97</v>
@@ -33469,10 +33472,10 @@
     </row>
     <row r="38" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
       <c r="F38" s="2"/>
       <c r="G38" s="29" t="s">
         <v>97</v>
@@ -33508,25 +33511,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="159" t="s">
+      <c r="A40" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="157" t="s">
+      <c r="B40" s="167"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="157" t="s">
+      <c r="H40" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157" t="s">
+      <c r="I40" s="168"/>
+      <c r="J40" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="K40" s="158" t="s">
+      <c r="K40" s="169" t="s">
         <v>34</v>
       </c>
       <c r="L40" s="23" t="s">
@@ -33537,42 +33540,42 @@
       <c r="A41" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
       <c r="F41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="158"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="169"/>
       <c r="L41" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
       <c r="F42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="154">
+      <c r="H42" s="174">
         <v>0.6</v>
       </c>
-      <c r="I42" s="154"/>
+      <c r="I42" s="174"/>
       <c r="J42" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G42)</f>
         <v>0</v>
@@ -33588,22 +33591,22 @@
     </row>
     <row r="43" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="31"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="174">
         <v>0.6</v>
       </c>
-      <c r="I43" s="154"/>
+      <c r="I43" s="174"/>
       <c r="J43" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G43)</f>
         <v>0</v>
@@ -33619,20 +33622,20 @@
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31"/>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
       <c r="F44" s="2"/>
       <c r="G44" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="174">
         <v>0</v>
       </c>
-      <c r="I44" s="154"/>
+      <c r="I44" s="174"/>
       <c r="J44" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G44)</f>
         <v>0</v>
@@ -33648,16 +33651,16 @@
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="31"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
       <c r="F45" s="2"/>
       <c r="G45" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
       <c r="J45" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G45)</f>
         <v>0</v>
@@ -33673,16 +33676,16 @@
     </row>
     <row r="46" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="31"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
       <c r="F46" s="2"/>
       <c r="G46" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="174"/>
       <c r="J46" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G46)</f>
         <v>0</v>
@@ -33698,16 +33701,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="31"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
       <c r="F47" s="2"/>
       <c r="G47" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="174"/>
       <c r="J47" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G47)</f>
         <v>0</v>
@@ -33723,16 +33726,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="31"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
       <c r="F48" s="2"/>
       <c r="G48" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="174"/>
       <c r="J48" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G48)</f>
         <v>0</v>
@@ -33748,16 +33751,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="31"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
       <c r="F49" s="2"/>
       <c r="G49" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
       <c r="J49" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G49)</f>
         <v>0</v>
@@ -33773,16 +33776,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
       <c r="F50" s="2"/>
       <c r="G50" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
       <c r="J50" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G50)</f>
         <v>0</v>
@@ -33798,16 +33801,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="31"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
       <c r="F51" s="2"/>
       <c r="G51" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
       <c r="J51" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G51)</f>
         <v>0</v>
@@ -33823,16 +33826,16 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="31"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
       <c r="F52" s="2"/>
       <c r="G52" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
       <c r="J52" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G52)</f>
         <v>0</v>
@@ -33848,16 +33851,16 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="31"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
       <c r="F53" s="2"/>
       <c r="G53" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="174"/>
       <c r="J53" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G53)</f>
         <v>0</v>
@@ -33873,16 +33876,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="31"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
       <c r="F54" s="2"/>
       <c r="G54" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="174"/>
       <c r="J54" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G54)</f>
         <v>0</v>
@@ -33898,16 +33901,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="31"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
       <c r="F55" s="2"/>
       <c r="G55" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
       <c r="J55" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G55)</f>
         <v>0</v>
@@ -33923,16 +33926,16 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="31"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
       <c r="F56" s="2"/>
       <c r="G56" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
+      <c r="H56" s="174"/>
+      <c r="I56" s="174"/>
       <c r="J56" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G56)</f>
         <v>0</v>
@@ -33948,16 +33951,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="31"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
       <c r="F57" s="2"/>
       <c r="G57" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
       <c r="J57" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G57)</f>
         <v>0</v>
@@ -33973,16 +33976,16 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="31"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
       <c r="F58" s="2"/>
       <c r="G58" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="174"/>
       <c r="J58" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G58)</f>
         <v>0</v>
@@ -33998,16 +34001,16 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="31"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="147"/>
       <c r="F59" s="2"/>
       <c r="G59" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
       <c r="J59" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G59)</f>
         <v>0</v>
@@ -34023,16 +34026,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="31"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
       <c r="F60" s="2"/>
       <c r="G60" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="154"/>
-      <c r="I60" s="154"/>
+      <c r="H60" s="174"/>
+      <c r="I60" s="174"/>
       <c r="J60" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G60)</f>
         <v>0</v>
@@ -34048,16 +34051,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="31"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
       <c r="F61" s="2"/>
       <c r="G61" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H61" s="154"/>
-      <c r="I61" s="154"/>
+      <c r="H61" s="174"/>
+      <c r="I61" s="174"/>
       <c r="J61" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G61)</f>
         <v>0</v>
@@ -34073,16 +34076,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="31"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
       <c r="F62" s="2"/>
       <c r="G62" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
+      <c r="H62" s="174"/>
+      <c r="I62" s="174"/>
       <c r="J62" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G62)</f>
         <v>0</v>
@@ -34098,16 +34101,16 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="31"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
       <c r="F63" s="2"/>
       <c r="G63" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
+      <c r="H63" s="174"/>
+      <c r="I63" s="174"/>
       <c r="J63" s="32">
         <f>COUNTIF(Funções!B$8:B$606,G63)</f>
         <v>0</v>
@@ -34123,16 +34126,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="33"/>
-      <c r="B64" s="155"/>
-      <c r="C64" s="155"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
+      <c r="B64" s="175"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
+      <c r="H64" s="176"/>
+      <c r="I64" s="176"/>
       <c r="J64" s="36">
         <f>COUNTIF(Funções!B$8:B$606,G64)</f>
         <v>0</v>
@@ -34149,27 +34152,62 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="90">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -34183,62 +34221,27 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="48" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -34254,8 +34257,8 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="165" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="165" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
       <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
@@ -34278,148 +34281,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="169" t="str">
+      <c r="A4" s="179" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Doggis</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="148" t="str">
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="161" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : TCC</v>
       </c>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="169" t="str">
+      <c r="A5" s="179" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Gabriel dos Santos Lucena</v>
       </c>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="148" t="str">
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="161" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="169" t="str">
+      <c r="A6" s="179" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : PUC Minas</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="148" t="str">
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="161" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Aplicação</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="181" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="166" t="s">
+      <c r="B7" s="181"/>
+      <c r="C7" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="167" t="s">
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="177" t="s">
         <v>122</v>
       </c>
       <c r="I7" s="73"/>
-      <c r="J7" s="167" t="s">
+      <c r="J7" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="167"/>
-      <c r="L7" s="168" t="s">
+      <c r="K7" s="177"/>
+      <c r="L7" s="178" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
       <c r="I8" s="74"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="168"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="178"/>
     </row>
     <row r="9" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
@@ -34442,7 +34445,7 @@
       </c>
       <c r="C10" s="56">
         <f>COUNTIF(Funções!G8:G606,"EEL")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="57" t="s">
@@ -34453,7 +34456,7 @@
       </c>
       <c r="G10" s="56">
         <f>C10*3</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H10" s="55"/>
       <c r="I10" s="38"/>
@@ -34463,7 +34466,7 @@
       </c>
       <c r="K10" s="59">
         <f>SUMIF(Funções!$J$8:$J$606,"EE"&amp;Deflatores!G4,Funções!$L$8:$L$606)</f>
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="L10" s="60"/>
     </row>
@@ -34472,7 +34475,7 @@
       <c r="B11" s="55"/>
       <c r="C11" s="56">
         <f>COUNTIF(Funções!G8:G606,"EEA")</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="57" t="s">
@@ -34483,7 +34486,7 @@
       </c>
       <c r="G11" s="56">
         <f>C11*4</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H11" s="55"/>
       <c r="I11" s="38"/>
@@ -34548,7 +34551,7 @@
       </c>
       <c r="C14" s="56">
         <f>SUM(C10:C12)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
@@ -34557,21 +34560,21 @@
       </c>
       <c r="G14" s="56">
         <f>SUM(G10:G12)</f>
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="H14" s="38">
         <f>IF($G$45&lt;&gt;0,G14/$G$45,"")</f>
-        <v>0.25889967637540451</v>
+        <v>0.47265625</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="58"/>
       <c r="K14" s="59">
         <f>SUM(K10:K13)</f>
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="L14" s="40">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K14/'Sumário 2'!L11,"")</f>
-        <v>0.25889967637540451</v>
+        <v>0.47265625</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -34630,7 +34633,7 @@
       </c>
       <c r="K17" s="68">
         <f>SUMIF(Funções!$J$8:$J$606,"SE"&amp;Deflatores!$G$4,Funções!$L$8:$L$606)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L17" s="60"/>
     </row>
@@ -34639,7 +34642,7 @@
       <c r="B18" s="55"/>
       <c r="C18" s="58">
         <f>COUNTIF(Funções!G8:G606,"SEA")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="57" t="s">
@@ -34650,7 +34653,7 @@
       </c>
       <c r="G18" s="58">
         <f>C18*5</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="55"/>
@@ -34715,7 +34718,7 @@
       </c>
       <c r="C21" s="56">
         <f>SUM(C17:C19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -34724,21 +34727,21 @@
       </c>
       <c r="G21" s="56">
         <f>SUM(G17:G19)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H21" s="38">
         <f>IF($G$45&lt;&gt;0,G21/$G$45,"")</f>
-        <v>0.12944983818770225</v>
+        <v>0.17578125</v>
       </c>
       <c r="I21" s="65"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59">
         <f>SUM(K17:K20)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L21" s="40">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K21/'Sumário 2'!L11,"")</f>
-        <v>9.7087378640776698E-2</v>
+        <v>0.17578125</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -34797,7 +34800,7 @@
       </c>
       <c r="K24" s="59">
         <f>SUMIF(Funções!$J$8:$J$606,"CE"&amp;Deflatores!$G$4,Funções!$L$8:$L$606)</f>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="L24" s="60"/>
     </row>
@@ -34895,17 +34898,17 @@
       </c>
       <c r="H28" s="38">
         <f>IF($G$45&lt;&gt;0,G28/$G$45,"")</f>
-        <v>0.29126213592233008</v>
+        <v>0.3515625</v>
       </c>
       <c r="I28" s="65"/>
       <c r="J28" s="58"/>
       <c r="K28" s="59">
         <f>SUM(K24:K27)</f>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="L28" s="40">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K28/'Sumário 2'!L11,"")</f>
-        <v>0.11650485436893204</v>
+        <v>0.3515625</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -34943,7 +34946,7 @@
       </c>
       <c r="C31" s="56">
         <f>COUNTIF(Funções!G8:G606,"ALIL")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55" t="s">
@@ -34954,7 +34957,7 @@
       </c>
       <c r="G31" s="56">
         <f>C31*7</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -34964,7 +34967,7 @@
       </c>
       <c r="K31" s="59">
         <f>SUMIF(Funções!$J$8:$J$606,"ALI"&amp;Deflatores!$G$4,Funções!$L$8:$L$606)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L31" s="60"/>
     </row>
@@ -34973,7 +34976,7 @@
       <c r="B32" s="55"/>
       <c r="C32" s="56">
         <f>COUNTIF(Funções!G8:G606,"ALIA")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55" t="s">
@@ -34984,7 +34987,7 @@
       </c>
       <c r="G32" s="56">
         <f>C32*10</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -35049,7 +35052,7 @@
       </c>
       <c r="C35" s="56">
         <f>SUM(C31:C33)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -35058,21 +35061,21 @@
       </c>
       <c r="G35" s="56">
         <f>SUM(G31:G33)</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H35" s="38">
         <f>IF($G$45&lt;&gt;0,G35/$G$45,"")</f>
-        <v>0.30420711974110032</v>
+        <v>0</v>
       </c>
       <c r="I35" s="65"/>
       <c r="J35" s="58"/>
       <c r="K35" s="59">
         <f>SUM(K31:K34)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L35" s="40">
         <f>IF('Sumário 2'!L11&lt;&gt;0,K35/'Sumário 2'!L11,"")</f>
-        <v>0.25889967637540451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -35110,7 +35113,7 @@
       </c>
       <c r="C38" s="56">
         <f>COUNTIF(Funções!G8:G606,"AIEL")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
@@ -35121,7 +35124,7 @@
       </c>
       <c r="G38" s="56">
         <f>C38*5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="55"/>
       <c r="I38" s="55"/>
@@ -35216,7 +35219,7 @@
       </c>
       <c r="C42" s="56">
         <f>SUM(C38:C40)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -35225,11 +35228,11 @@
       </c>
       <c r="G42" s="56">
         <f>SUM(G38:G40)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="38">
         <f>IF($G$45&lt;&gt;0,G42/$G$45,"")</f>
-        <v>1.6181229773462782E-2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="65"/>
       <c r="J42" s="58"/>
@@ -35272,16 +35275,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="61"/>
-      <c r="B45" s="164" t="s">
+      <c r="B45" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
       <c r="G45" s="56">
         <f>SUM(G14+G21+G28+G35+G42)</f>
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
@@ -35291,16 +35294,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="61"/>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
       <c r="G46" s="56">
         <f>(C10+C11+C12)*4+(C17+C18+C19)*5+(C24+C25+C26)*4+(C31+C32+C33)*7+(C38+C39+C40)*5</f>
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
@@ -35310,16 +35313,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="61"/>
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="180"/>
+      <c r="F47" s="180"/>
       <c r="G47" s="56">
         <f>(C31+C32+C33)*35+(C38+C39+C40)*15</f>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
@@ -35400,6 +35403,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="16">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:K8"/>
@@ -35411,11 +35419,6 @@
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:L6"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:F8"/>
   </mergeCells>
   <pageMargins left="0.51180555555555551" right="0.51180555555555551" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555551" footer="0.31527777777777777"/>
   <pageSetup paperSize="9" scale="94" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -35436,7 +35439,7 @@
   <sheetPr codeName="Plan5"/>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
@@ -35459,114 +35462,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="143"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="169" t="str">
+      <c r="A4" s="179" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v>Aplicação : Doggis</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="148" t="str">
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="161" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v>Projeto : TCC</v>
       </c>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="171" t="str">
+      <c r="A5" s="183" t="str">
         <f>Contagem!A9&amp;" : "&amp;Contagem!F9</f>
         <v>Responsável : Gabriel dos Santos Lucena</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="148" t="str">
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="161" t="str">
         <f>Contagem!A10&amp;" : "&amp;Contagem!F10</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="171" t="str">
+      <c r="A6" s="183" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v>Empresa : PUC Minas</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="148" t="str">
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="161" t="str">
         <f>"Tipo de Contagem : "&amp;Contagem!F6</f>
         <v>Tipo de Contagem : Aplicação</v>
       </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="88"/>
@@ -35585,14 +35588,14 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="88"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="65"/>
@@ -35600,11 +35603,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="88"/>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="185" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
       <c r="E9" s="41" t="s">
         <v>101</v>
       </c>
@@ -35629,22 +35632,22 @@
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88"/>
-      <c r="B10" s="140" t="str">
+      <c r="B10" s="147" t="str">
         <f>""&amp;Deflatores!B4</f>
         <v>Inclusão</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="29" t="str">
         <f>""&amp;Deflatores!G4</f>
         <v>I</v>
       </c>
       <c r="E10" s="112">
         <f>IF(D10="","",COUNTIF(Funções!C$8:C$606,D10))</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F10" s="113">
         <f>SUMIF(Funções!$C$8:$C$606,Deflatores!G4,Funções!$H$8:$H$606)</f>
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="G10" s="114">
         <f>IF(ISBLANK(Deflatores!H4),"",Deflatores!H4)</f>
@@ -35656,11 +35659,11 @@
       </c>
       <c r="I10" s="115">
         <f>IF(F10=0,Deflatores!K4,F10*G10)</f>
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="J10" s="116">
         <f t="shared" ref="J10:J44" si="0">IF($L$11&lt;&gt;0,I10/$L$11,"")</f>
-        <v>0.73139158576051777</v>
+        <v>1</v>
       </c>
       <c r="K10" s="65"/>
       <c r="L10" s="46" t="s">
@@ -35670,11 +35673,11 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="88"/>
-      <c r="B11" s="140" t="str">
+      <c r="B11" s="147" t="str">
         <f>""&amp;Deflatores!B5</f>
         <v>Alteração (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C11" s="140"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="29" t="str">
         <f>""&amp;Deflatores!G5</f>
         <v>A</v>
@@ -35706,17 +35709,17 @@
       <c r="K11" s="100"/>
       <c r="L11" s="47">
         <f>Contagem!Q6</f>
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="88"/>
-      <c r="B12" s="140" t="str">
+      <c r="B12" s="147" t="str">
         <f>""&amp;Deflatores!B6</f>
         <v>Exclusão</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="29" t="str">
         <f>""&amp;Deflatores!G6</f>
         <v>E</v>
@@ -35751,11 +35754,11 @@
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="88"/>
-      <c r="B13" s="140" t="str">
+      <c r="B13" s="147" t="str">
         <f>""&amp;Deflatores!B7</f>
         <v>Alteração (50%) de função desenvolvida ou já alterada pela empresa atual</v>
       </c>
-      <c r="C13" s="140"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="29" t="str">
         <f>""&amp;Deflatores!G7</f>
         <v>A50</v>
@@ -35792,11 +35795,11 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="88"/>
-      <c r="B14" s="140" t="str">
+      <c r="B14" s="147" t="str">
         <f>""&amp;Deflatores!B8</f>
         <v>Alteração (75%) de função não desenv. e ainda não alterada pela empresa atual</v>
       </c>
-      <c r="C14" s="140"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="29" t="str">
         <f>""&amp;Deflatores!G8</f>
         <v>A75</v>
@@ -35828,17 +35831,17 @@
       <c r="K14" s="65"/>
       <c r="L14" s="47">
         <f>Contagem!Q4</f>
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="88"/>
-      <c r="B15" s="140" t="str">
+      <c r="B15" s="147" t="str">
         <f>""&amp;Deflatores!B9</f>
         <v>Alteração (75%+15%): o mesmo acima + redocumentar a função</v>
       </c>
-      <c r="C15" s="140"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="29" t="str">
         <f>""&amp;Deflatores!G9</f>
         <v>A90</v>
@@ -35873,11 +35876,11 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="88"/>
-      <c r="B16" s="140" t="str">
+      <c r="B16" s="147" t="str">
         <f>""&amp;Deflatores!B10</f>
         <v>Migração de Dados</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="29" t="str">
         <f>""&amp;Deflatores!G10</f>
         <v>PMD</v>
@@ -35912,11 +35915,11 @@
     </row>
     <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="88"/>
-      <c r="B17" s="140" t="str">
+      <c r="B17" s="147" t="str">
         <f>""&amp;Deflatores!B11</f>
         <v>Corretiva (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="29" t="str">
         <f>""&amp;Deflatores!G11</f>
         <v>COR</v>
@@ -35951,11 +35954,11 @@
     </row>
     <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="88"/>
-      <c r="B18" s="140" t="str">
+      <c r="B18" s="147" t="str">
         <f>""&amp;Deflatores!B12</f>
         <v>Corretiva (50%) - Fora da garantia (mesma empresa)</v>
       </c>
-      <c r="C18" s="140"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="29" t="str">
         <f>""&amp;Deflatores!G12</f>
         <v>COR50</v>
@@ -35990,11 +35993,11 @@
     </row>
     <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="88"/>
-      <c r="B19" s="140" t="str">
+      <c r="B19" s="147" t="str">
         <f>""&amp;Deflatores!B13</f>
         <v>Corretiva (75%) - Fora da garantia (outra empresa)</v>
       </c>
-      <c r="C19" s="140"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="29" t="str">
         <f>""&amp;Deflatores!G13</f>
         <v>COR75</v>
@@ -36029,11 +36032,11 @@
     </row>
     <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="88"/>
-      <c r="B20" s="140" t="str">
+      <c r="B20" s="147" t="str">
         <f>""&amp;Deflatores!B14</f>
         <v>Corretiva (75%+15%) - Fora da garantia (outra empresa) + Redocumentação</v>
       </c>
-      <c r="C20" s="140"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="29" t="str">
         <f>""&amp;Deflatores!G14</f>
         <v>COR90</v>
@@ -36068,11 +36071,11 @@
     </row>
     <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="88"/>
-      <c r="B21" s="140" t="str">
+      <c r="B21" s="147" t="str">
         <f>""&amp;Deflatores!B15</f>
         <v>Corretiva em Garantia</v>
       </c>
-      <c r="C21" s="140"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="29" t="str">
         <f>""&amp;Deflatores!G15</f>
         <v>GAR</v>
@@ -36107,11 +36110,11 @@
     </row>
     <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="88"/>
-      <c r="B22" s="140" t="str">
+      <c r="B22" s="147" t="str">
         <f>""&amp;Deflatores!B16</f>
         <v>Mudança de Plataforma - Linguagem de Programação</v>
       </c>
-      <c r="C22" s="140"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="29" t="str">
         <f>""&amp;Deflatores!G16</f>
         <v>MLP</v>
@@ -36146,11 +36149,11 @@
     </row>
     <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="88"/>
-      <c r="B23" s="140" t="str">
+      <c r="B23" s="147" t="str">
         <f>""&amp;Deflatores!B17</f>
         <v>Mudança de Plataforma - Banco de Dados (outro paradigma)</v>
       </c>
-      <c r="C23" s="140"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="29" t="str">
         <f>""&amp;Deflatores!G17</f>
         <v>MBO</v>
@@ -36185,11 +36188,11 @@
     </row>
     <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="88"/>
-      <c r="B24" s="140" t="str">
+      <c r="B24" s="147" t="str">
         <f>""&amp;Deflatores!B18</f>
         <v>Mudança de Plataforma - Banco de Dados (mesmo paradigma com alterações)</v>
       </c>
-      <c r="C24" s="140"/>
+      <c r="C24" s="147"/>
       <c r="D24" s="29" t="str">
         <f>""&amp;Deflatores!G18</f>
         <v>MBM</v>
@@ -36224,11 +36227,11 @@
     </row>
     <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="88"/>
-      <c r="B25" s="140" t="str">
+      <c r="B25" s="147" t="str">
         <f>""&amp;Deflatores!B19</f>
         <v>Atualização de Versão – Linguagem de Programação</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="29" t="str">
         <f>""&amp;Deflatores!G19</f>
         <v>ALP</v>
@@ -36263,11 +36266,11 @@
     </row>
     <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="88"/>
-      <c r="B26" s="140" t="str">
+      <c r="B26" s="147" t="str">
         <f>""&amp;Deflatores!B20</f>
         <v>Atualização de Versão – Browser</v>
       </c>
-      <c r="C26" s="140"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="29" t="str">
         <f>""&amp;Deflatores!G20</f>
         <v>AVB</v>
@@ -36302,11 +36305,11 @@
     </row>
     <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="88"/>
-      <c r="B27" s="140" t="str">
+      <c r="B27" s="147" t="str">
         <f>""&amp;Deflatores!B21</f>
         <v>Atualização de Versão – Banco de Dados</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="29" t="str">
         <f>""&amp;Deflatores!G21</f>
         <v>ABD</v>
@@ -36341,11 +36344,11 @@
     </row>
     <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="88"/>
-      <c r="B28" s="140" t="str">
+      <c r="B28" s="147" t="str">
         <f>""&amp;Deflatores!B22</f>
         <v>Manutenção Cosmética</v>
       </c>
-      <c r="C28" s="140"/>
+      <c r="C28" s="147"/>
       <c r="D28" s="29" t="str">
         <f>""&amp;Deflatores!G22</f>
         <v>COS</v>
@@ -36380,12 +36383,12 @@
     </row>
     <row r="29" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="88"/>
-      <c r="B29" s="160" t="str">
+      <c r="B29" s="170" t="str">
         <f>""&amp;Deflatores!B23</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais
 (sem conhecimento do Fator de Impacto)</v>
       </c>
-      <c r="C29" s="162"/>
+      <c r="C29" s="172"/>
       <c r="D29" s="29" t="str">
         <f>""&amp;Deflatores!G23</f>
         <v>ARN</v>
@@ -36420,12 +36423,12 @@
     </row>
     <row r="30" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="88"/>
-      <c r="B30" s="160" t="str">
+      <c r="B30" s="170" t="str">
         <f>""&amp;Deflatores!B24</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (50%)
 (em função desenvolvida ou já alterada pela empresa atual)</v>
       </c>
-      <c r="C30" s="162"/>
+      <c r="C30" s="172"/>
       <c r="D30" s="29" t="str">
         <f>""&amp;Deflatores!G24</f>
         <v>ARN50</v>
@@ -36460,12 +36463,12 @@
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="88"/>
-      <c r="B31" s="160" t="str">
+      <c r="B31" s="170" t="str">
         <f>""&amp;Deflatores!B25</f>
         <v>Adaptação em Funcionalidades sem Alteração de Requisitos Funcionais (75%)
 (em função não desenvolvida e ainda não alterada pela empresa atual)</v>
       </c>
-      <c r="C31" s="162"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="29" t="str">
         <f>""&amp;Deflatores!G25</f>
         <v>ARN75</v>
@@ -36500,22 +36503,22 @@
     </row>
     <row r="32" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="88"/>
-      <c r="B32" s="140" t="str">
+      <c r="B32" s="147" t="str">
         <f>""&amp;Deflatores!B26</f>
         <v>Atualização de Dados sem Consulta Prévia</v>
       </c>
-      <c r="C32" s="140"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="29" t="str">
         <f>""&amp;Deflatores!G26</f>
         <v>ADS</v>
       </c>
       <c r="E32" s="112">
         <f>IF(D32="","",COUNTIF(Funções!C$8:C$606,D32))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="113">
         <f>SUMIF(Funções!$C$8:$C$606,Deflatores!G26,Funções!$H$8:$H$606)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" s="114">
         <f>IF(ISBLANK(Deflatores!H26),"",Deflatores!H26)</f>
@@ -36527,11 +36530,11 @@
       </c>
       <c r="I32" s="115">
         <f>Deflatores!K26</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J32" s="116">
         <f t="shared" si="0"/>
-        <v>2.2653721682847898E-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="65"/>
       <c r="L32" s="65"/>
@@ -36539,11 +36542,11 @@
     </row>
     <row r="33" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="88"/>
-      <c r="B33" s="140" t="str">
+      <c r="B33" s="147" t="str">
         <f>""&amp;Deflatores!B27</f>
         <v>Consulta Prévia sem Atualização</v>
       </c>
-      <c r="C33" s="140"/>
+      <c r="C33" s="147"/>
       <c r="D33" s="29" t="str">
         <f>""&amp;Deflatores!G27</f>
         <v>CPA</v>
@@ -36578,11 +36581,11 @@
     </row>
     <row r="34" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="88"/>
-      <c r="B34" s="140" t="str">
+      <c r="B34" s="147" t="str">
         <f>""&amp;Deflatores!B28</f>
         <v>Atualização de Dados com Consulta Prévia</v>
       </c>
-      <c r="C34" s="140"/>
+      <c r="C34" s="147"/>
       <c r="D34" s="29" t="str">
         <f>""&amp;Deflatores!G28</f>
         <v>ADC</v>
@@ -36617,11 +36620,11 @@
     </row>
     <row r="35" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="88"/>
-      <c r="B35" s="140" t="str">
+      <c r="B35" s="147" t="str">
         <f>""&amp;Deflatores!B29</f>
         <v>Apuração Especial – Geração de Relatórios</v>
       </c>
-      <c r="C35" s="140"/>
+      <c r="C35" s="147"/>
       <c r="D35" s="29" t="str">
         <f>""&amp;Deflatores!G29</f>
         <v>AGR</v>
@@ -36656,11 +36659,11 @@
     </row>
     <row r="36" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="88"/>
-      <c r="B36" s="140" t="str">
+      <c r="B36" s="147" t="str">
         <f>""&amp;Deflatores!B30</f>
         <v>Apuração Especial – Reexecução</v>
       </c>
-      <c r="C36" s="140"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="29" t="str">
         <f>""&amp;Deflatores!G30</f>
         <v>AER</v>
@@ -36695,11 +36698,11 @@
     </row>
     <row r="37" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="88"/>
-      <c r="B37" s="140" t="str">
+      <c r="B37" s="147" t="str">
         <f>""&amp;Deflatores!B31</f>
         <v>Atualização de Dados</v>
       </c>
-      <c r="C37" s="140"/>
+      <c r="C37" s="147"/>
       <c r="D37" s="29" t="str">
         <f>""&amp;Deflatores!G31</f>
         <v>ATD</v>
@@ -36734,11 +36737,11 @@
     </row>
     <row r="38" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="88"/>
-      <c r="B38" s="140" t="str">
+      <c r="B38" s="147" t="str">
         <f>""&amp;Deflatores!B32</f>
         <v>Manutenção de Documentação de Sistemas Legados</v>
       </c>
-      <c r="C38" s="140"/>
+      <c r="C38" s="147"/>
       <c r="D38" s="29" t="str">
         <f>""&amp;Deflatores!G32</f>
         <v>MSL</v>
@@ -36773,11 +36776,11 @@
     </row>
     <row r="39" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="88"/>
-      <c r="B39" s="140" t="str">
+      <c r="B39" s="147" t="str">
         <f>""&amp;Deflatores!B33</f>
         <v>Verificação de Erros (Sem Documentação de Teste existente)</v>
       </c>
-      <c r="C39" s="140"/>
+      <c r="C39" s="147"/>
       <c r="D39" s="29" t="str">
         <f>""&amp;Deflatores!G33</f>
         <v>VES</v>
@@ -36812,11 +36815,11 @@
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="88"/>
-      <c r="B40" s="140" t="str">
+      <c r="B40" s="147" t="str">
         <f>""&amp;Deflatores!B34</f>
         <v>Verificação de Erros (Com Documentação de Teste existente)</v>
       </c>
-      <c r="C40" s="140"/>
+      <c r="C40" s="147"/>
       <c r="D40" s="29" t="str">
         <f>""&amp;Deflatores!G34</f>
         <v>VEC</v>
@@ -36851,11 +36854,11 @@
     </row>
     <row r="41" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="88"/>
-      <c r="B41" s="140" t="str">
+      <c r="B41" s="147" t="str">
         <f>""&amp;Deflatores!B35</f>
         <v>Pontos de Função de Teste</v>
       </c>
-      <c r="C41" s="140"/>
+      <c r="C41" s="147"/>
       <c r="D41" s="29" t="str">
         <f>""&amp;Deflatores!G35</f>
         <v>PFT</v>
@@ -36890,22 +36893,22 @@
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="88"/>
-      <c r="B42" s="140" t="str">
+      <c r="B42" s="147" t="str">
         <f>""&amp;Deflatores!B36</f>
         <v>Componente Interno Reusável</v>
       </c>
-      <c r="C42" s="140"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="29" t="str">
         <f>""&amp;Deflatores!G36</f>
         <v>CIR</v>
       </c>
       <c r="E42" s="112">
         <f>IF(D42="","",COUNTIF(Funções!C$8:C$606,D42))</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F42" s="113">
         <f>SUMIF(Funções!$C$8:$C$606,Deflatores!G36,Funções!$H$8:$H$606)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G42" s="114">
         <f>IF(ISBLANK(Deflatores!H36),"",Deflatores!H36)</f>
@@ -36917,11 +36920,11 @@
       </c>
       <c r="I42" s="115">
         <f>Deflatores!K36</f>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J42" s="116">
         <f t="shared" si="0"/>
-        <v>0.2459546925566343</v>
+        <v>0</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
@@ -36929,11 +36932,11 @@
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="88"/>
-      <c r="B43" s="140" t="str">
+      <c r="B43" s="147" t="str">
         <f>""&amp;Deflatores!B37</f>
         <v/>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="29" t="str">
         <f>""&amp;Deflatores!G37</f>
         <v xml:space="preserve">           .</v>
@@ -36968,11 +36971,11 @@
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="88"/>
-      <c r="B44" s="140" t="str">
+      <c r="B44" s="147" t="str">
         <f>""&amp;Deflatores!B38</f>
         <v/>
       </c>
-      <c r="C44" s="140"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="29" t="str">
         <f>""&amp;Deflatores!G38</f>
         <v xml:space="preserve">           .</v>
@@ -37022,11 +37025,11 @@
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="88"/>
-      <c r="B46" s="170" t="s">
+      <c r="B46" s="186" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="186"/>
       <c r="E46" s="49" t="s">
         <v>101</v>
       </c>
@@ -37047,11 +37050,11 @@
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="88"/>
-      <c r="B47" s="140" t="str">
+      <c r="B47" s="147" t="str">
         <f>""&amp;Deflatores!B42</f>
         <v>Páginas Estáticas</v>
       </c>
-      <c r="C47" s="140"/>
+      <c r="C47" s="147"/>
       <c r="D47" s="42" t="str">
         <f>""&amp;Deflatores!G42</f>
         <v>PAG</v>
@@ -37080,11 +37083,11 @@
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="88"/>
-      <c r="B48" s="140" t="str">
+      <c r="B48" s="147" t="str">
         <f>""&amp;Deflatores!B43</f>
         <v>Manutenção Cosmética (atrelada a algo não funcional)</v>
       </c>
-      <c r="C48" s="140"/>
+      <c r="C48" s="147"/>
       <c r="D48" s="42" t="str">
         <f>""&amp;Deflatores!G43</f>
         <v>COSNF</v>
@@ -37113,11 +37116,11 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="88"/>
-      <c r="B49" s="140" t="str">
+      <c r="B49" s="147" t="str">
         <f>""&amp;Deflatores!B44</f>
         <v>Dados de Código</v>
       </c>
-      <c r="C49" s="140"/>
+      <c r="C49" s="147"/>
       <c r="D49" s="42" t="str">
         <f>""&amp;Deflatores!G44</f>
         <v>DC</v>
@@ -37146,11 +37149,11 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="88"/>
-      <c r="B50" s="140" t="str">
+      <c r="B50" s="147" t="str">
         <f>""&amp;Deflatores!B45</f>
         <v/>
       </c>
-      <c r="C50" s="140"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="42" t="str">
         <f>""&amp;Deflatores!G45</f>
         <v xml:space="preserve">           .</v>
@@ -37179,11 +37182,11 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="88"/>
-      <c r="B51" s="140" t="str">
+      <c r="B51" s="147" t="str">
         <f>""&amp;Deflatores!B46</f>
         <v/>
       </c>
-      <c r="C51" s="140"/>
+      <c r="C51" s="147"/>
       <c r="D51" s="42" t="str">
         <f>""&amp;Deflatores!G46</f>
         <v xml:space="preserve">           .</v>
@@ -37212,11 +37215,11 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="88"/>
-      <c r="B52" s="140" t="str">
+      <c r="B52" s="147" t="str">
         <f>""&amp;Deflatores!B47</f>
         <v/>
       </c>
-      <c r="C52" s="140"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="42" t="str">
         <f>""&amp;Deflatores!G47</f>
         <v xml:space="preserve">           .</v>
@@ -37245,11 +37248,11 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="88"/>
-      <c r="B53" s="140" t="str">
+      <c r="B53" s="147" t="str">
         <f>""&amp;Deflatores!B48</f>
         <v/>
       </c>
-      <c r="C53" s="140"/>
+      <c r="C53" s="147"/>
       <c r="D53" s="42" t="str">
         <f>""&amp;Deflatores!G48</f>
         <v xml:space="preserve">           .</v>
@@ -37278,11 +37281,11 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="88"/>
-      <c r="B54" s="140" t="str">
+      <c r="B54" s="147" t="str">
         <f>""&amp;Deflatores!B49</f>
         <v/>
       </c>
-      <c r="C54" s="140"/>
+      <c r="C54" s="147"/>
       <c r="D54" s="42" t="str">
         <f>""&amp;Deflatores!G49</f>
         <v xml:space="preserve">           .</v>
@@ -37311,11 +37314,11 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="88"/>
-      <c r="B55" s="140" t="str">
+      <c r="B55" s="147" t="str">
         <f>""&amp;Deflatores!B50</f>
         <v/>
       </c>
-      <c r="C55" s="140"/>
+      <c r="C55" s="147"/>
       <c r="D55" s="42" t="str">
         <f>""&amp;Deflatores!G50</f>
         <v xml:space="preserve">           .</v>
@@ -37344,11 +37347,11 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="88"/>
-      <c r="B56" s="140" t="str">
+      <c r="B56" s="147" t="str">
         <f>""&amp;Deflatores!B51</f>
         <v/>
       </c>
-      <c r="C56" s="140"/>
+      <c r="C56" s="147"/>
       <c r="D56" s="42" t="str">
         <f>""&amp;Deflatores!G51</f>
         <v xml:space="preserve">           .</v>
@@ -37377,11 +37380,11 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="88"/>
-      <c r="B57" s="140" t="str">
+      <c r="B57" s="147" t="str">
         <f>""&amp;Deflatores!B52</f>
         <v/>
       </c>
-      <c r="C57" s="140"/>
+      <c r="C57" s="147"/>
       <c r="D57" s="42" t="str">
         <f>""&amp;Deflatores!G52</f>
         <v xml:space="preserve">           .</v>
@@ -37410,11 +37413,11 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="88"/>
-      <c r="B58" s="140" t="str">
+      <c r="B58" s="147" t="str">
         <f>""&amp;Deflatores!B53</f>
         <v/>
       </c>
-      <c r="C58" s="140"/>
+      <c r="C58" s="147"/>
       <c r="D58" s="42" t="str">
         <f>""&amp;Deflatores!G53</f>
         <v xml:space="preserve">           .</v>
@@ -37443,11 +37446,11 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="88"/>
-      <c r="B59" s="140" t="str">
+      <c r="B59" s="147" t="str">
         <f>""&amp;Deflatores!B54</f>
         <v/>
       </c>
-      <c r="C59" s="140"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="42" t="str">
         <f>""&amp;Deflatores!G54</f>
         <v xml:space="preserve">           .</v>
@@ -37476,11 +37479,11 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="88"/>
-      <c r="B60" s="140" t="str">
+      <c r="B60" s="147" t="str">
         <f>""&amp;Deflatores!B55</f>
         <v/>
       </c>
-      <c r="C60" s="140"/>
+      <c r="C60" s="147"/>
       <c r="D60" s="42" t="str">
         <f>""&amp;Deflatores!G55</f>
         <v xml:space="preserve">           .</v>
@@ -37509,11 +37512,11 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="88"/>
-      <c r="B61" s="140" t="str">
+      <c r="B61" s="147" t="str">
         <f>""&amp;Deflatores!B56</f>
         <v/>
       </c>
-      <c r="C61" s="140"/>
+      <c r="C61" s="147"/>
       <c r="D61" s="42" t="str">
         <f>""&amp;Deflatores!G56</f>
         <v xml:space="preserve">           .</v>
@@ -37542,11 +37545,11 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="88"/>
-      <c r="B62" s="140" t="str">
+      <c r="B62" s="147" t="str">
         <f>""&amp;Deflatores!B57</f>
         <v/>
       </c>
-      <c r="C62" s="140"/>
+      <c r="C62" s="147"/>
       <c r="D62" s="42" t="str">
         <f>""&amp;Deflatores!G57</f>
         <v xml:space="preserve">           .</v>
@@ -37575,11 +37578,11 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="88"/>
-      <c r="B63" s="140" t="str">
+      <c r="B63" s="147" t="str">
         <f>""&amp;Deflatores!B58</f>
         <v/>
       </c>
-      <c r="C63" s="140"/>
+      <c r="C63" s="147"/>
       <c r="D63" s="42" t="str">
         <f>""&amp;Deflatores!G58</f>
         <v xml:space="preserve">           .</v>
@@ -37608,11 +37611,11 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="88"/>
-      <c r="B64" s="140" t="str">
+      <c r="B64" s="147" t="str">
         <f>""&amp;Deflatores!B59</f>
         <v/>
       </c>
-      <c r="C64" s="140"/>
+      <c r="C64" s="147"/>
       <c r="D64" s="42" t="str">
         <f>""&amp;Deflatores!G59</f>
         <v xml:space="preserve">           .</v>
@@ -37641,11 +37644,11 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="88"/>
-      <c r="B65" s="140" t="str">
+      <c r="B65" s="147" t="str">
         <f>""&amp;Deflatores!B60</f>
         <v/>
       </c>
-      <c r="C65" s="140"/>
+      <c r="C65" s="147"/>
       <c r="D65" s="42" t="str">
         <f>""&amp;Deflatores!G60</f>
         <v xml:space="preserve">           .</v>
@@ -37674,11 +37677,11 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="88"/>
-      <c r="B66" s="140" t="str">
+      <c r="B66" s="147" t="str">
         <f>""&amp;Deflatores!B61</f>
         <v/>
       </c>
-      <c r="C66" s="140"/>
+      <c r="C66" s="147"/>
       <c r="D66" s="42" t="str">
         <f>""&amp;Deflatores!G61</f>
         <v xml:space="preserve">           .</v>
@@ -37707,11 +37710,11 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="88"/>
-      <c r="B67" s="140" t="str">
+      <c r="B67" s="147" t="str">
         <f>""&amp;Deflatores!B62</f>
         <v/>
       </c>
-      <c r="C67" s="140"/>
+      <c r="C67" s="147"/>
       <c r="D67" s="42" t="str">
         <f>""&amp;Deflatores!G62</f>
         <v xml:space="preserve">           .</v>
@@ -37740,11 +37743,11 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="88"/>
-      <c r="B68" s="140" t="str">
+      <c r="B68" s="147" t="str">
         <f>""&amp;Deflatores!B63</f>
         <v/>
       </c>
-      <c r="C68" s="140"/>
+      <c r="C68" s="147"/>
       <c r="D68" s="42" t="str">
         <f>""&amp;Deflatores!G63</f>
         <v xml:space="preserve">           .</v>
@@ -37773,11 +37776,11 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="88"/>
-      <c r="B69" s="140" t="str">
+      <c r="B69" s="147" t="str">
         <f>""&amp;Deflatores!B64</f>
         <v/>
       </c>
-      <c r="C69" s="140"/>
+      <c r="C69" s="147"/>
       <c r="D69" s="42" t="str">
         <f>""&amp;Deflatores!G64</f>
         <v xml:space="preserve">           .</v>
@@ -37822,6 +37825,58 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="68">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A1:M3"/>
@@ -37838,58 +37893,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.023611111111111" bottom="1.023611111111111" header="0.51180555555555551" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -37915,1848 +37918,1848 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="176" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="176"/>
-    <col min="4" max="4" width="7" style="176" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="176" customWidth="1"/>
-    <col min="6" max="6" width="5" style="176" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="176"/>
-    <col min="8" max="8" width="78.1640625" style="185" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="176"/>
+    <col min="1" max="1" width="24.1640625" style="134" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="134"/>
+    <col min="4" max="4" width="7" style="134" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="134" customWidth="1"/>
+    <col min="6" max="6" width="5" style="134" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="134"/>
+    <col min="8" max="8" width="78.1640625" style="143" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="183" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:8" s="141" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="182" t="s">
+      <c r="D1" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="182" t="s">
+      <c r="E1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="182" t="s">
+      <c r="F1" s="140" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="182" t="s">
+      <c r="G1" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="133" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="178">
+      <c r="D2" s="136">
         <v>1</v>
       </c>
-      <c r="E2" s="178">
+      <c r="E2" s="136">
         <v>3</v>
       </c>
-      <c r="F2" s="178">
+      <c r="F2" s="136">
         <v>4</v>
       </c>
-      <c r="G2" s="178">
+      <c r="G2" s="136">
         <f>E2+F2</f>
         <v>7</v>
       </c>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="142" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="178">
+      <c r="D3" s="136">
         <v>1</v>
       </c>
-      <c r="E3" s="179">
+      <c r="E3" s="137">
         <v>3</v>
       </c>
-      <c r="F3" s="178">
+      <c r="F3" s="136">
         <v>3</v>
       </c>
-      <c r="G3" s="178">
+      <c r="G3" s="136">
         <f t="shared" ref="G3:G66" si="0">E3+F3</f>
         <v>6</v>
       </c>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="142" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="178">
+      <c r="D4" s="136">
         <v>1</v>
       </c>
-      <c r="E4" s="179">
+      <c r="E4" s="137">
         <v>1</v>
       </c>
-      <c r="F4" s="178">
+      <c r="F4" s="136">
         <v>1</v>
       </c>
-      <c r="G4" s="178">
+      <c r="G4" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="142" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="178">
+      <c r="D5" s="136">
         <v>1</v>
       </c>
-      <c r="E5" s="179">
+      <c r="E5" s="137">
         <v>1</v>
       </c>
-      <c r="F5" s="178">
+      <c r="F5" s="136">
         <v>8</v>
       </c>
-      <c r="G5" s="178">
+      <c r="G5" s="136">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H5" s="184" t="s">
+      <c r="H5" s="142" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="178" t="s">
+      <c r="C6" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="178">
+      <c r="D6" s="136">
         <v>1</v>
       </c>
-      <c r="E6" s="179">
+      <c r="E6" s="137">
         <v>2</v>
       </c>
-      <c r="F6" s="178">
+      <c r="F6" s="136">
         <v>8</v>
       </c>
-      <c r="G6" s="178">
+      <c r="G6" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H6" s="184" t="s">
+      <c r="H6" s="142" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="178">
+      <c r="D7" s="136">
         <v>1</v>
       </c>
-      <c r="E7" s="179">
+      <c r="E7" s="137">
         <v>2</v>
       </c>
-      <c r="F7" s="178">
+      <c r="F7" s="136">
         <v>8</v>
       </c>
-      <c r="G7" s="178">
+      <c r="G7" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="142" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="136">
         <v>1</v>
       </c>
-      <c r="E8" s="179">
+      <c r="E8" s="137">
         <v>1</v>
       </c>
-      <c r="F8" s="178">
+      <c r="F8" s="136">
         <v>1</v>
       </c>
-      <c r="G8" s="178">
+      <c r="G8" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H8" s="184" t="s">
+      <c r="H8" s="142" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="178" t="s">
+      <c r="C9" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="178">
+      <c r="D9" s="136">
         <v>1</v>
       </c>
-      <c r="E9" s="179">
+      <c r="E9" s="137">
         <v>2</v>
       </c>
-      <c r="F9" s="178">
+      <c r="F9" s="136">
         <v>1</v>
       </c>
-      <c r="G9" s="178">
+      <c r="G9" s="136">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H9" s="184" t="s">
+      <c r="H9" s="142" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="136">
         <v>1</v>
       </c>
-      <c r="E10" s="179">
+      <c r="E10" s="137">
         <v>2</v>
       </c>
-      <c r="F10" s="178">
+      <c r="F10" s="136">
         <v>5</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10" s="136">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="142" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="178" t="s">
+      <c r="C11" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="136">
         <v>1</v>
       </c>
-      <c r="E11" s="179">
+      <c r="E11" s="137">
         <v>2</v>
       </c>
-      <c r="F11" s="178">
+      <c r="F11" s="136">
         <v>6</v>
       </c>
-      <c r="G11" s="178">
+      <c r="G11" s="136">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11" s="184" t="s">
+      <c r="H11" s="142" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="178">
+      <c r="D12" s="136">
         <v>1</v>
       </c>
-      <c r="E12" s="179">
+      <c r="E12" s="137">
         <v>2</v>
       </c>
-      <c r="F12" s="178">
+      <c r="F12" s="136">
         <v>6</v>
       </c>
-      <c r="G12" s="178">
+      <c r="G12" s="136">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H12" s="184" t="s">
+      <c r="H12" s="142" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="178">
+      <c r="D13" s="136">
         <v>1</v>
       </c>
-      <c r="E13" s="179">
+      <c r="E13" s="137">
         <v>1</v>
       </c>
-      <c r="F13" s="178">
+      <c r="F13" s="136">
         <v>1</v>
       </c>
-      <c r="G13" s="178">
+      <c r="G13" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H13" s="184" t="s">
+      <c r="H13" s="142" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="178">
+      <c r="D14" s="136">
         <v>1</v>
       </c>
-      <c r="E14" s="179">
+      <c r="E14" s="137">
         <v>2</v>
       </c>
-      <c r="F14" s="178">
+      <c r="F14" s="136">
         <v>1</v>
       </c>
-      <c r="G14" s="178">
+      <c r="G14" s="136">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="184" t="s">
+      <c r="H14" s="142" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="178">
+      <c r="D15" s="136">
         <v>1</v>
       </c>
-      <c r="E15" s="179">
+      <c r="E15" s="137">
         <v>2</v>
       </c>
-      <c r="F15" s="178">
+      <c r="F15" s="136">
         <v>1</v>
       </c>
-      <c r="G15" s="178">
+      <c r="G15" s="136">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H15" s="184" t="s">
+      <c r="H15" s="142" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D16" s="178">
+      <c r="D16" s="136">
         <v>1</v>
       </c>
-      <c r="E16" s="179">
+      <c r="E16" s="137">
         <v>3</v>
       </c>
-      <c r="F16" s="178">
+      <c r="F16" s="136">
         <v>11</v>
       </c>
-      <c r="G16" s="178">
+      <c r="G16" s="136">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H16" s="184" t="s">
+      <c r="H16" s="142" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="178">
+      <c r="D17" s="136">
         <v>1</v>
       </c>
-      <c r="E17" s="179">
+      <c r="E17" s="137">
         <v>3</v>
       </c>
-      <c r="F17" s="178">
+      <c r="F17" s="136">
         <v>13</v>
       </c>
-      <c r="G17" s="178">
+      <c r="G17" s="136">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H17" s="184" t="s">
+      <c r="H17" s="142" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="177" t="s">
+      <c r="A18" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="178">
+      <c r="D18" s="136">
         <v>1</v>
       </c>
-      <c r="E18" s="179">
+      <c r="E18" s="137">
         <v>3</v>
       </c>
-      <c r="F18" s="178">
+      <c r="F18" s="136">
         <v>13</v>
       </c>
-      <c r="G18" s="178">
+      <c r="G18" s="136">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H18" s="184" t="s">
+      <c r="H18" s="142" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="178">
+      <c r="D19" s="136">
         <v>1</v>
       </c>
-      <c r="E19" s="179">
+      <c r="E19" s="137">
         <v>1</v>
       </c>
-      <c r="F19" s="178">
+      <c r="F19" s="136">
         <v>1</v>
       </c>
-      <c r="G19" s="178">
+      <c r="G19" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H19" s="184" t="s">
+      <c r="H19" s="142" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="177" t="s">
+      <c r="A20" s="135" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="178">
+      <c r="D20" s="136">
         <v>1</v>
       </c>
-      <c r="E20" s="179">
+      <c r="E20" s="137">
         <v>3</v>
       </c>
-      <c r="F20" s="178">
+      <c r="F20" s="136">
         <v>12</v>
       </c>
-      <c r="G20" s="178">
+      <c r="G20" s="136">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H20" s="184" t="s">
+      <c r="H20" s="142" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="177" t="s">
+      <c r="A21" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="178" t="s">
+      <c r="B21" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="178">
+      <c r="D21" s="136">
         <v>1</v>
       </c>
-      <c r="E21" s="179">
+      <c r="E21" s="137">
         <v>1</v>
       </c>
-      <c r="F21" s="178">
+      <c r="F21" s="136">
         <v>1</v>
       </c>
-      <c r="G21" s="178">
+      <c r="G21" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H21" s="184" t="s">
+      <c r="H21" s="142" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="178">
+      <c r="D22" s="136">
         <v>1</v>
       </c>
-      <c r="E22" s="179">
+      <c r="E22" s="137">
         <v>2</v>
       </c>
-      <c r="F22" s="178">
+      <c r="F22" s="136">
         <v>3</v>
       </c>
-      <c r="G22" s="178">
+      <c r="G22" s="136">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H22" s="184" t="s">
+      <c r="H22" s="142" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="135" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="178" t="s">
+      <c r="C23" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="178">
+      <c r="D23" s="136">
         <v>1</v>
       </c>
-      <c r="E23" s="179">
+      <c r="E23" s="137">
         <v>4</v>
       </c>
-      <c r="F23" s="178">
+      <c r="F23" s="136">
         <v>8</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="136">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H23" s="184" t="s">
+      <c r="H23" s="142" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D24" s="178">
+      <c r="D24" s="136">
         <v>1</v>
       </c>
-      <c r="E24" s="179">
+      <c r="E24" s="137">
         <v>4</v>
       </c>
-      <c r="F24" s="178">
+      <c r="F24" s="136">
         <v>8</v>
       </c>
-      <c r="G24" s="178">
+      <c r="G24" s="136">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H24" s="184" t="s">
+      <c r="H24" s="142" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="177" t="s">
+      <c r="A25" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="178" t="s">
+      <c r="C25" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="178">
+      <c r="D25" s="136">
         <v>1</v>
       </c>
-      <c r="E25" s="179">
+      <c r="E25" s="137">
         <v>1</v>
       </c>
-      <c r="F25" s="178">
+      <c r="F25" s="136">
         <v>1</v>
       </c>
-      <c r="G25" s="178">
+      <c r="G25" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H25" s="184" t="s">
+      <c r="H25" s="142" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="177" t="s">
+      <c r="A26" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="178">
+      <c r="D26" s="136">
         <v>1</v>
       </c>
-      <c r="E26" s="179">
+      <c r="E26" s="137">
         <v>1</v>
       </c>
-      <c r="F26" s="178">
+      <c r="F26" s="136">
         <v>1</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="142" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="178" t="s">
+      <c r="B27" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="178">
+      <c r="D27" s="136">
         <v>1</v>
       </c>
-      <c r="E27" s="179">
+      <c r="E27" s="137">
         <v>1</v>
       </c>
-      <c r="F27" s="178">
+      <c r="F27" s="136">
         <v>1</v>
       </c>
-      <c r="G27" s="178">
+      <c r="G27" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H27" s="184" t="s">
+      <c r="H27" s="142" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="178" t="s">
+      <c r="C28" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="178">
+      <c r="D28" s="136">
         <v>1</v>
       </c>
-      <c r="E28" s="179">
+      <c r="E28" s="137">
         <v>3</v>
       </c>
-      <c r="F28" s="178">
+      <c r="F28" s="136">
         <v>8</v>
       </c>
-      <c r="G28" s="178">
+      <c r="G28" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H28" s="184" t="s">
+      <c r="H28" s="142" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="178" t="s">
+      <c r="C29" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="178">
+      <c r="D29" s="136">
         <v>1</v>
       </c>
-      <c r="E29" s="179">
+      <c r="E29" s="137">
         <v>4</v>
       </c>
-      <c r="F29" s="178">
+      <c r="F29" s="136">
         <v>8</v>
       </c>
-      <c r="G29" s="178">
+      <c r="G29" s="136">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H29" s="184" t="s">
+      <c r="H29" s="142" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="178" t="s">
+      <c r="C30" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="178">
+      <c r="D30" s="136">
         <v>1</v>
       </c>
-      <c r="E30" s="179">
+      <c r="E30" s="137">
         <v>3</v>
       </c>
-      <c r="F30" s="178">
+      <c r="F30" s="136">
         <v>8</v>
       </c>
-      <c r="G30" s="178">
+      <c r="G30" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H30" s="184" t="s">
+      <c r="H30" s="142" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="177" t="s">
+      <c r="A31" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="178">
+      <c r="D31" s="136">
         <v>1</v>
       </c>
-      <c r="E31" s="179">
+      <c r="E31" s="137">
         <v>1</v>
       </c>
-      <c r="F31" s="178">
+      <c r="F31" s="136">
         <v>1</v>
       </c>
-      <c r="G31" s="178">
+      <c r="G31" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H31" s="184" t="s">
+      <c r="H31" s="142" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="177" t="s">
+      <c r="A32" s="135" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="178">
+      <c r="D32" s="136">
         <v>1</v>
       </c>
-      <c r="E32" s="179">
+      <c r="E32" s="137">
         <v>3</v>
       </c>
-      <c r="F32" s="178">
+      <c r="F32" s="136">
         <v>6</v>
       </c>
-      <c r="G32" s="178">
+      <c r="G32" s="136">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H32" s="186" t="s">
+      <c r="H32" s="144" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="177" t="s">
+      <c r="A33" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="178">
+      <c r="D33" s="136">
         <v>1</v>
       </c>
-      <c r="E33" s="179">
+      <c r="E33" s="137">
         <v>1</v>
       </c>
-      <c r="F33" s="178">
+      <c r="F33" s="136">
         <v>1</v>
       </c>
-      <c r="G33" s="178">
+      <c r="G33" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H33" s="184" t="s">
+      <c r="H33" s="142" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="135" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="178">
+      <c r="D34" s="136">
         <v>1</v>
       </c>
-      <c r="E34" s="179">
+      <c r="E34" s="137">
         <v>1</v>
       </c>
-      <c r="F34" s="178">
+      <c r="F34" s="136">
         <v>1</v>
       </c>
-      <c r="G34" s="178">
+      <c r="G34" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H34" s="184" t="s">
+      <c r="H34" s="142" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="177" t="s">
+      <c r="A35" s="135" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="178" t="s">
+      <c r="C35" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="178">
+      <c r="D35" s="136">
         <v>1</v>
       </c>
-      <c r="E35" s="179">
+      <c r="E35" s="137">
         <v>1</v>
       </c>
-      <c r="F35" s="178">
+      <c r="F35" s="136">
         <v>3</v>
       </c>
-      <c r="G35" s="178">
+      <c r="G35" s="136">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H35" s="184" t="s">
+      <c r="H35" s="142" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="135" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="178" t="s">
+      <c r="B36" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D36" s="178">
+      <c r="D36" s="136">
         <v>1</v>
       </c>
-      <c r="E36" s="179">
+      <c r="E36" s="137">
         <v>4</v>
       </c>
-      <c r="F36" s="178">
+      <c r="F36" s="136">
         <v>7</v>
       </c>
-      <c r="G36" s="178">
+      <c r="G36" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H36" s="184" t="s">
+      <c r="H36" s="142" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="177" t="s">
+      <c r="A37" s="135" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="178" t="s">
+      <c r="B37" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="178" t="s">
+      <c r="C37" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D37" s="178">
+      <c r="D37" s="136">
         <v>1</v>
       </c>
-      <c r="E37" s="179">
+      <c r="E37" s="137">
         <v>3</v>
       </c>
-      <c r="F37" s="178">
+      <c r="F37" s="136">
         <v>4</v>
       </c>
-      <c r="G37" s="178">
+      <c r="G37" s="136">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H37" s="184" t="s">
+      <c r="H37" s="142" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="177" t="s">
+      <c r="A38" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="178" t="s">
+      <c r="B38" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="178">
+      <c r="D38" s="136">
         <v>1</v>
       </c>
-      <c r="E38" s="179">
+      <c r="E38" s="137">
         <v>1</v>
       </c>
-      <c r="F38" s="178">
+      <c r="F38" s="136">
         <v>1</v>
       </c>
-      <c r="G38" s="178">
+      <c r="G38" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H38" s="184" t="s">
+      <c r="H38" s="142" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="178" t="s">
+      <c r="C39" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="178">
+      <c r="D39" s="136">
         <v>1</v>
       </c>
-      <c r="E39" s="179">
+      <c r="E39" s="137">
         <v>4</v>
       </c>
-      <c r="F39" s="178">
+      <c r="F39" s="136">
         <v>0</v>
       </c>
-      <c r="G39" s="178">
+      <c r="G39" s="136">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H39" s="184" t="s">
+      <c r="H39" s="142" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="178" t="s">
+      <c r="B40" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="178">
+      <c r="D40" s="136">
         <v>1</v>
       </c>
-      <c r="E40" s="179">
+      <c r="E40" s="137">
         <v>2</v>
       </c>
-      <c r="F40" s="178">
+      <c r="F40" s="136">
         <v>3</v>
       </c>
-      <c r="G40" s="178">
+      <c r="G40" s="136">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H40" s="184" t="s">
+      <c r="H40" s="142" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="178" t="s">
+      <c r="B41" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="178">
+      <c r="D41" s="136">
         <v>1</v>
       </c>
-      <c r="E41" s="179">
+      <c r="E41" s="137">
         <v>2</v>
       </c>
-      <c r="F41" s="178">
+      <c r="F41" s="136">
         <v>8</v>
       </c>
-      <c r="G41" s="178">
+      <c r="G41" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H41" s="184" t="s">
+      <c r="H41" s="142" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="177" t="s">
+      <c r="A42" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="178">
+      <c r="D42" s="136">
         <v>1</v>
       </c>
-      <c r="E42" s="179">
+      <c r="E42" s="137">
         <v>3</v>
       </c>
-      <c r="F42" s="178">
+      <c r="F42" s="136">
         <v>8</v>
       </c>
-      <c r="G42" s="178">
+      <c r="G42" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H42" s="184" t="s">
+      <c r="H42" s="142" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="177" t="s">
+      <c r="A43" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="178" t="s">
+      <c r="B43" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="178" t="s">
+      <c r="C43" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D43" s="178">
+      <c r="D43" s="136">
         <v>1</v>
       </c>
-      <c r="E43" s="179">
+      <c r="E43" s="137">
         <v>3</v>
       </c>
-      <c r="F43" s="178">
+      <c r="F43" s="136">
         <v>8</v>
       </c>
-      <c r="G43" s="178">
+      <c r="G43" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H43" s="184" t="s">
+      <c r="H43" s="142" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="135" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="178">
+      <c r="D44" s="136">
         <v>1</v>
       </c>
-      <c r="E44" s="179">
+      <c r="E44" s="137">
         <v>1</v>
       </c>
-      <c r="F44" s="178">
+      <c r="F44" s="136">
         <v>1</v>
       </c>
-      <c r="G44" s="178">
+      <c r="G44" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H44" s="184" t="s">
+      <c r="H44" s="142" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="177" t="s">
+      <c r="A45" s="135" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="178" t="s">
+      <c r="B45" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="178" t="s">
+      <c r="C45" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="178">
+      <c r="D45" s="136">
         <v>1</v>
       </c>
-      <c r="E45" s="179">
+      <c r="E45" s="137">
         <v>3</v>
       </c>
-      <c r="F45" s="178">
+      <c r="F45" s="136">
         <v>8</v>
       </c>
-      <c r="G45" s="178">
+      <c r="G45" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H45" s="184" t="s">
+      <c r="H45" s="142" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="177" t="s">
+      <c r="A46" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="178" t="s">
+      <c r="C46" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D46" s="178">
+      <c r="D46" s="136">
         <v>1</v>
       </c>
-      <c r="E46" s="179">
+      <c r="E46" s="137">
         <v>2</v>
       </c>
-      <c r="F46" s="178">
+      <c r="F46" s="136">
         <v>10</v>
       </c>
-      <c r="G46" s="178">
+      <c r="G46" s="136">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H46" s="184" t="s">
+      <c r="H46" s="142" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="177" t="s">
+      <c r="A47" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="178" t="s">
+      <c r="B47" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="178" t="s">
+      <c r="C47" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="178">
+      <c r="D47" s="136">
         <v>1</v>
       </c>
-      <c r="E47" s="179">
+      <c r="E47" s="137">
         <v>2</v>
       </c>
-      <c r="F47" s="178">
+      <c r="F47" s="136">
         <v>5</v>
       </c>
-      <c r="G47" s="178">
+      <c r="G47" s="136">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H47" s="184" t="s">
+      <c r="H47" s="142" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="177" t="s">
+      <c r="A48" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="178" t="s">
+      <c r="B48" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="178" t="s">
+      <c r="C48" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="178">
+      <c r="D48" s="136">
         <v>1</v>
       </c>
-      <c r="E48" s="179">
+      <c r="E48" s="137">
         <v>2</v>
       </c>
-      <c r="F48" s="178">
+      <c r="F48" s="136">
         <v>5</v>
       </c>
-      <c r="G48" s="178">
+      <c r="G48" s="136">
         <f>E48+F48</f>
         <v>7</v>
       </c>
-      <c r="H48" s="184" t="s">
+      <c r="H48" s="142" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="177" t="s">
+      <c r="A49" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="178" t="s">
+      <c r="B49" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D49" s="178">
+      <c r="D49" s="136">
         <v>1</v>
       </c>
-      <c r="E49" s="179">
+      <c r="E49" s="137">
         <v>1</v>
       </c>
-      <c r="F49" s="178">
+      <c r="F49" s="136">
         <v>1</v>
       </c>
-      <c r="G49" s="178">
+      <c r="G49" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H49" s="184" t="s">
+      <c r="H49" s="142" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="177" t="s">
+      <c r="A50" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="178" t="s">
+      <c r="B50" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D50" s="178">
+      <c r="D50" s="136">
         <v>1</v>
       </c>
-      <c r="E50" s="179">
+      <c r="E50" s="137">
         <v>2</v>
       </c>
-      <c r="F50" s="178">
+      <c r="F50" s="136">
         <v>5</v>
       </c>
-      <c r="G50" s="178">
+      <c r="G50" s="136">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H50" s="186" t="s">
+      <c r="H50" s="144" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="178" t="s">
+      <c r="B51" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="178" t="s">
+      <c r="C51" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D51" s="178">
+      <c r="D51" s="136">
         <v>1</v>
       </c>
-      <c r="E51" s="179">
+      <c r="E51" s="137">
         <v>3</v>
       </c>
-      <c r="F51" s="178">
+      <c r="F51" s="136">
         <v>11</v>
       </c>
-      <c r="G51" s="178">
+      <c r="G51" s="136">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H51" s="184" t="s">
+      <c r="H51" s="142" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="177" t="s">
+      <c r="A52" s="135" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="178" t="s">
+      <c r="B52" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="178" t="s">
+      <c r="C52" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="178">
+      <c r="D52" s="136">
         <v>1</v>
       </c>
-      <c r="E52" s="179">
+      <c r="E52" s="137">
         <v>7</v>
       </c>
-      <c r="F52" s="178">
+      <c r="F52" s="136">
         <v>17</v>
       </c>
-      <c r="G52" s="178">
+      <c r="G52" s="136">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H52" s="184" t="s">
+      <c r="H52" s="142" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="177" t="s">
+    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="178" t="s">
+      <c r="B53" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="178" t="s">
+      <c r="C53" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D53" s="178">
+      <c r="D53" s="136">
         <v>1</v>
       </c>
-      <c r="E53" s="179">
+      <c r="E53" s="137">
         <v>1</v>
       </c>
-      <c r="F53" s="178">
+      <c r="F53" s="136">
         <v>1</v>
       </c>
-      <c r="G53" s="178">
+      <c r="G53" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H53" s="184" t="s">
+      <c r="H53" s="142" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="177" t="s">
+      <c r="A54" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="B54" s="178" t="s">
+      <c r="B54" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="178" t="s">
+      <c r="C54" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D54" s="178">
+      <c r="D54" s="136">
         <v>1</v>
       </c>
-      <c r="E54" s="179">
+      <c r="E54" s="137">
         <v>5</v>
       </c>
-      <c r="F54" s="178">
+      <c r="F54" s="136">
         <v>17</v>
       </c>
-      <c r="G54" s="178">
+      <c r="G54" s="136">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H54" s="184" t="s">
+      <c r="H54" s="142" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="177" t="s">
+      <c r="A55" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="178" t="s">
+      <c r="B55" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="178" t="s">
+      <c r="C55" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D55" s="178">
+      <c r="D55" s="136">
         <v>1</v>
       </c>
-      <c r="E55" s="179">
+      <c r="E55" s="137">
         <v>5</v>
       </c>
-      <c r="F55" s="178">
+      <c r="F55" s="136">
         <v>9</v>
       </c>
-      <c r="G55" s="178">
+      <c r="G55" s="136">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H55" s="184" t="s">
+      <c r="H55" s="142" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="177" t="s">
+      <c r="A56" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="178" t="s">
+      <c r="B56" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="178" t="s">
+      <c r="C56" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="178">
+      <c r="D56" s="136">
         <v>1</v>
       </c>
-      <c r="E56" s="179">
+      <c r="E56" s="137">
         <v>5</v>
       </c>
-      <c r="F56" s="178">
+      <c r="F56" s="136">
         <v>8</v>
       </c>
-      <c r="G56" s="178">
+      <c r="G56" s="136">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H56" s="184" t="s">
+      <c r="H56" s="142" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="177" t="s">
+      <c r="A57" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="178" t="s">
+      <c r="B57" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="178" t="s">
+      <c r="C57" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D57" s="178">
+      <c r="D57" s="136">
         <v>1</v>
       </c>
-      <c r="E57" s="179">
+      <c r="E57" s="137">
         <v>5</v>
       </c>
-      <c r="F57" s="178">
+      <c r="F57" s="136">
         <v>8</v>
       </c>
-      <c r="G57" s="178">
+      <c r="G57" s="136">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H57" s="184" t="s">
+      <c r="H57" s="142" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="177" t="s">
+      <c r="A58" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="178" t="s">
+      <c r="B58" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="178" t="s">
+      <c r="C58" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="178">
+      <c r="D58" s="136">
         <v>1</v>
       </c>
-      <c r="E58" s="179">
+      <c r="E58" s="137">
         <v>1</v>
       </c>
-      <c r="F58" s="178">
+      <c r="F58" s="136">
         <v>1</v>
       </c>
-      <c r="G58" s="178">
+      <c r="G58" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H58" s="184" t="s">
+      <c r="H58" s="142" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="135" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="178" t="s">
+      <c r="B59" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="178" t="s">
+      <c r="C59" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="178">
+      <c r="D59" s="136">
         <v>1</v>
       </c>
-      <c r="E59" s="179">
+      <c r="E59" s="137">
         <v>5</v>
       </c>
-      <c r="F59" s="178">
+      <c r="F59" s="136">
         <v>5</v>
       </c>
-      <c r="G59" s="178">
+      <c r="G59" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H59" s="184" t="s">
+      <c r="H59" s="142" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="177" t="s">
+      <c r="A60" s="135" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="178" t="s">
+      <c r="B60" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="178" t="s">
+      <c r="C60" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="178">
+      <c r="D60" s="136">
         <v>1</v>
       </c>
-      <c r="E60" s="179">
+      <c r="E60" s="137">
         <v>1</v>
       </c>
-      <c r="F60" s="178">
+      <c r="F60" s="136">
         <v>1</v>
       </c>
-      <c r="G60" s="178">
+      <c r="G60" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H60" s="184" t="s">
+      <c r="H60" s="142" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="135" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="178" t="s">
+      <c r="B61" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="178" t="s">
+      <c r="C61" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="178">
+      <c r="D61" s="136">
         <v>1</v>
       </c>
-      <c r="E61" s="179">
+      <c r="E61" s="137">
         <v>5</v>
       </c>
-      <c r="F61" s="178">
+      <c r="F61" s="136">
         <v>5</v>
       </c>
-      <c r="G61" s="178">
+      <c r="G61" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H61" s="186" t="s">
+      <c r="H61" s="144" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="177" t="s">
+      <c r="A62" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="B62" s="178" t="s">
+      <c r="B62" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="178" t="s">
+      <c r="C62" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="178">
+      <c r="D62" s="136">
         <v>1</v>
       </c>
-      <c r="E62" s="179">
+      <c r="E62" s="137">
         <v>5</v>
       </c>
-      <c r="F62" s="178">
+      <c r="F62" s="136">
         <v>5</v>
       </c>
-      <c r="G62" s="178">
+      <c r="G62" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H62" s="186" t="s">
+      <c r="H62" s="144" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="177" t="s">
+      <c r="A63" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="B63" s="178" t="s">
+      <c r="B63" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="178" t="s">
+      <c r="C63" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D63" s="178">
+      <c r="D63" s="136">
         <v>1</v>
       </c>
-      <c r="E63" s="179">
+      <c r="E63" s="137">
         <v>5</v>
       </c>
-      <c r="F63" s="178">
+      <c r="F63" s="136">
         <v>5</v>
       </c>
-      <c r="G63" s="178">
+      <c r="G63" s="136">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H63" s="186" t="s">
+      <c r="H63" s="144" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="177" t="s">
+      <c r="A64" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="178" t="s">
+      <c r="B64" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="178" t="s">
+      <c r="C64" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="178">
+      <c r="D64" s="136">
         <v>1</v>
       </c>
-      <c r="E64" s="179">
+      <c r="E64" s="137">
         <v>1</v>
       </c>
-      <c r="F64" s="178">
+      <c r="F64" s="136">
         <v>1</v>
       </c>
-      <c r="G64" s="178">
+      <c r="G64" s="136">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H64" s="184" t="s">
+      <c r="H64" s="142" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="135" t="s">
         <v>236</v>
       </c>
-      <c r="B65" s="178" t="s">
+      <c r="B65" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="178" t="s">
+      <c r="C65" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D65" s="178">
+      <c r="D65" s="136">
         <v>1</v>
       </c>
-      <c r="E65" s="179">
+      <c r="E65" s="137">
         <v>5</v>
       </c>
-      <c r="F65" s="178">
+      <c r="F65" s="136">
         <v>0</v>
       </c>
-      <c r="G65" s="178">
+      <c r="G65" s="136">
         <f>E65+F65</f>
         <v>5</v>
       </c>
-      <c r="H65" s="184" t="s">
+      <c r="H65" s="142" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="177" t="s">
+      <c r="A66" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="178" t="s">
+      <c r="B66" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="178" t="s">
+      <c r="C66" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="178">
+      <c r="D66" s="136">
         <v>1</v>
       </c>
-      <c r="E66" s="179">
+      <c r="E66" s="137">
         <v>5</v>
       </c>
-      <c r="F66" s="178">
+      <c r="F66" s="136">
         <v>6</v>
       </c>
-      <c r="G66" s="178">
+      <c r="G66" s="136">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H66" s="184" t="s">
+      <c r="H66" s="142" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="177" t="s">
+      <c r="A67" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="B67" s="178" t="s">
+      <c r="B67" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="178" t="s">
+      <c r="C67" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="178">
+      <c r="D67" s="136">
         <v>1</v>
       </c>
-      <c r="E67" s="179">
+      <c r="E67" s="137">
         <v>4</v>
       </c>
-      <c r="F67" s="178">
+      <c r="F67" s="136">
         <v>8</v>
       </c>
-      <c r="G67" s="178">
+      <c r="G67" s="136">
         <f t="shared" ref="G67:G68" si="1">E67+F67</f>
         <v>12</v>
       </c>
-      <c r="H67" s="184" t="s">
+      <c r="H67" s="142" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="135" t="s">
         <v>238</v>
       </c>
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="178" t="s">
+      <c r="C68" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="D68" s="178">
+      <c r="D68" s="136">
         <v>1</v>
       </c>
-      <c r="E68" s="179">
+      <c r="E68" s="137">
         <v>5</v>
       </c>
-      <c r="F68" s="178">
+      <c r="F68" s="136">
         <v>8</v>
       </c>
-      <c r="G68" s="178">
+      <c r="G68" s="136">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H68" s="184" t="s">
+      <c r="H68" s="142" t="s">
         <v>277</v>
       </c>
     </row>
